--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0676C9A0-DBC3-40E3-8091-F5FF1929EB8A}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578F1E62-F827-4268-B818-F49C007C6359}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>Unit</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Head_length</t>
   </si>
   <si>
-    <t>Distance from tip of mandibles to anterior end of pronotum (follows Bousquet 2010)</t>
-  </si>
-  <si>
     <t>Distance, along midline, from anterior to posterior end of pronotum</t>
   </si>
   <si>
@@ -169,10 +166,25 @@
     <t>Distance, along 1st elytral interval, from posterior edge of pronotum to posterior edge of elytra - not including the abdomen if it extends past elytra. The anterior 1/2 of the elytra should be horizontal.</t>
   </si>
   <si>
-    <t>If necessary, measure each tarsal segment and add them up</t>
-  </si>
-  <si>
     <t>Distance from (the center of the apex of the femur) to end of tibia, not including tibial spurs</t>
+  </si>
+  <si>
+    <t>Chlaenius_emarginatus</t>
+  </si>
+  <si>
+    <t>If necessary, measure each tarsal segment and add them up. Do not include tarsal claws.</t>
+  </si>
+  <si>
+    <t>Apenes_lucidula</t>
+  </si>
+  <si>
+    <t>Elytra were separated so abdomen width was calculated by multiplying the width of one elyton by two</t>
+  </si>
+  <si>
+    <t>Distance from tip of mandibles to anterior end of pronotum (follows Bousquet 2010). If mandibles are unequal in length, I'm taking the distance from the longer of the mandibles.</t>
+  </si>
+  <si>
+    <t>Dicaelus_politus</t>
   </si>
 </sst>
 </file>
@@ -216,13 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -338,6 +349,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1"/>
@@ -649,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -660,18 +675,18 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -683,23 +698,23 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -710,13 +725,13 @@
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -724,29 +739,29 @@
     </row>
     <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -768,10 +783,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -779,29 +794,29 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -812,34 +827,34 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -850,91 +865,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17" style="4" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="87.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>45</v>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -943,51 +957,54 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>819702</v>
-      </c>
-      <c r="E2" s="4">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3.45</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3.13</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="L2" s="4">
-        <v>7.34</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O2" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="P2" s="4">
-        <v>3.95</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2.75</v>
+        <v>819706</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -996,51 +1013,52 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>819711</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="G3" s="4">
+        <v>819715</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="H3" s="3">
         <v>2.6</v>
       </c>
-      <c r="H3" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.78</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L3" s="4">
-        <v>6.75</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="O3" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="P3" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2.5499999999999998</v>
-      </c>
+      <c r="I3" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1049,51 +1067,52 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>819703</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="G4" s="4">
+        <v>819707</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="I4" s="3">
         <v>2.6</v>
       </c>
-      <c r="H4" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="P4" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="J4" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="3">
         <v>2.6</v>
       </c>
+      <c r="P4" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1102,51 +1121,52 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>819712</v>
-      </c>
-      <c r="E5" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="L5" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="4">
+        <v>819716</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="P5" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="O5" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1155,45 +1175,959 @@
         <v>3</v>
       </c>
       <c r="D6">
+        <v>819724</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>819708</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.37</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>819717</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>819725</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7.05</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>819709</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>819718</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="L11" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>819726</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>819704</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="P13" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>819713</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>819722</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L15" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>819705</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="P16" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>819714</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7.85</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>819723</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>819702</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L19" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O19" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>819711</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P20" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>819703</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>819712</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>819721</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E23" s="3">
         <v>7.1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G23" s="3">
         <v>2.85</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H23" s="3">
         <v>3.3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I23" s="3">
         <v>2.9</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J23" s="3">
         <v>1.8</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K23" s="3">
         <v>1.25</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L23" s="3">
         <v>6.6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M23" s="3">
         <v>0.53</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N23" s="3">
         <v>0.97</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O23" s="3">
         <v>3.65</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P23" s="3">
         <v>3.7</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q23" s="3">
         <v>2.6</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="650" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578F1E62-F827-4268-B818-F49C007C6359}"/>
+  <xr:revisionPtr revIDLastSave="1079" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8281375F-4313-43F4-B908-CAAC7C80EE2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
   <si>
     <t>Unit</t>
   </si>
@@ -37,9 +37,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>Distance between apical sides of each compound eye</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -97,15 +94,6 @@
     <t>Eye_protrusion</t>
   </si>
   <si>
-    <t>Head_width</t>
-  </si>
-  <si>
-    <t>Eye_distance</t>
-  </si>
-  <si>
-    <t>Head_width - Eye_distance</t>
-  </si>
-  <si>
     <t>Pronotum_width</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Eye_length</t>
   </si>
   <si>
-    <t>Look at beetle in profile. Turn the beetle so the rounded part of the eye is pointing straight up towards the lense of the microscope. Then measure from the anterior to posterior of the part covered in ommatidia.</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
@@ -181,10 +166,55 @@
     <t>Elytra were separated so abdomen width was calculated by multiplying the width of one elyton by two</t>
   </si>
   <si>
-    <t>Distance from tip of mandibles to anterior end of pronotum (follows Bousquet 2010). If mandibles are unequal in length, I'm taking the distance from the longer of the mandibles.</t>
-  </si>
-  <si>
     <t>Dicaelus_politus</t>
+  </si>
+  <si>
+    <t>Dicaelus_teter</t>
+  </si>
+  <si>
+    <t>needs Unique ID</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>both rear tarsi had broken ends</t>
+  </si>
+  <si>
+    <t>Pterostichus_rostratus</t>
+  </si>
+  <si>
+    <t>Distance between apical sides of each compound eye, EVEN if the head behind or around the eyes is slightly wider than the measured distance (example: Pterostichus rostratus)</t>
+  </si>
+  <si>
+    <t>Outer_eye_distance</t>
+  </si>
+  <si>
+    <t>Inner_eye_distance</t>
+  </si>
+  <si>
+    <t>Outer_eye_distance - Inner_eye_distance</t>
+  </si>
+  <si>
+    <t>I notice that in P. rostratus - the region between the pronotum and elytra is elongated just as in Scarites</t>
+  </si>
+  <si>
+    <t>Distance from tip of mandibles to anterior end of pronotum (follows Bousquet 2010). If mandibles are unequal in length, I'm taking the distance from the longer of the mandibles. I'm pitching the beetle up so that the mandibles are at roughly the same height as the frons.</t>
+  </si>
+  <si>
+    <t>Pterostichus_sayanus</t>
+  </si>
+  <si>
+    <t>Look at beetle in profile. Turn the beetle so the rounded part of the eye is pointing straight up towards the lense of the microscope. Then measure from the anterior to posterior of the part covered in ommatidia. Measure along the direction from lateral pronotal edge to mandibles</t>
+  </si>
+  <si>
+    <t>Myas_coracinus</t>
+  </si>
+  <si>
+    <t>Pterostichus_atratus</t>
+  </si>
+  <si>
+    <t>Pterostichus_moestus</t>
   </si>
 </sst>
 </file>
@@ -208,12 +238,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,13 +264,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,10 +671,10 @@
     <row r="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -648,7 +685,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
@@ -658,135 +695,135 @@
     </row>
     <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>3</v>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>24</v>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -794,67 +831,67 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -865,9 +902,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -879,8 +919,8 @@
     <col min="7" max="7" width="15.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.453125" style="3" customWidth="1"/>
@@ -892,66 +932,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -999,15 +1039,15 @@
         <v>2</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1058,10 +1098,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1112,10 +1152,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1166,10 +1206,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1220,914 +1260,2063 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>819708</v>
+        <v>819704</v>
       </c>
       <c r="E7" s="3">
-        <v>7</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="F7" s="3">
-        <v>4.37</v>
+        <v>5.3</v>
       </c>
       <c r="G7" s="3">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H7" s="3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J7" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.62</v>
       </c>
       <c r="K7" s="3">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="L7" s="3">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="M7" s="3">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="N7" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O7" s="3">
-        <v>3.55</v>
+        <v>4.25</v>
       </c>
       <c r="P7" s="3">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q7" s="3">
-        <v>3.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>819717</v>
+        <v>819713</v>
       </c>
       <c r="E8" s="3">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="F8" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H8" s="3">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J8" s="3">
         <v>2.35</v>
       </c>
       <c r="K8" s="3">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L8" s="3">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M8" s="3">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="N8" s="3">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="3">
-        <v>3.67</v>
+        <v>4.05</v>
       </c>
       <c r="P8" s="3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q8" s="3">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>819725</v>
+        <v>819722</v>
       </c>
       <c r="E9" s="3">
-        <v>7.55</v>
+        <v>8.6</v>
       </c>
       <c r="F9" s="3">
-        <v>4.8499999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="G9" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H9" s="3">
-        <v>4.08</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I9" s="3">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="J9" s="3">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K9" s="3">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L9" s="3">
-        <v>7.05</v>
+        <v>8.5</v>
       </c>
       <c r="M9" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="3">
-        <v>1.55</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O9" s="3">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="P9" s="3">
-        <v>3.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="Q9" s="3">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>819709</v>
+        <v>819705</v>
       </c>
       <c r="E10" s="3">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="F10" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="P10" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="Q10" s="3">
         <v>4.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2.9</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>819718</v>
+        <v>819714</v>
       </c>
       <c r="E11" s="3">
-        <v>7.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F11" s="3">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="G11" s="3">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H11" s="3">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I11" s="3">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="J11" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.62</v>
       </c>
       <c r="K11" s="3">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L11" s="3">
-        <v>6.4</v>
+        <v>7.85</v>
       </c>
       <c r="M11" s="3">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="N11" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="P11" s="3">
-        <v>3.4</v>
+        <v>4.05</v>
       </c>
       <c r="Q11" s="3">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>819726</v>
+        <v>819723</v>
       </c>
       <c r="E12" s="3">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="F12" s="3">
-        <v>4.8</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G12" s="3">
         <v>2.9</v>
       </c>
       <c r="H12" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3.7</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3.1</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>819704</v>
+        <v>819708</v>
       </c>
       <c r="E13" s="3">
-        <v>8.3699999999999992</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3">
-        <v>5.3</v>
+        <v>4.37</v>
       </c>
       <c r="G13" s="3">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I13" s="3">
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="J13" s="3">
-        <v>2.62</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K13" s="3">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="3">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="M13" s="3">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="N13" s="3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O13" s="3">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="P13" s="3">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>819713</v>
+        <v>819717</v>
       </c>
       <c r="E14" s="3">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="F14" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G14" s="3">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I14" s="3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>2.35</v>
       </c>
       <c r="K14" s="3">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L14" s="3">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M14" s="3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="N14" s="3">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="O14" s="3">
-        <v>4.05</v>
+        <v>3.67</v>
       </c>
       <c r="P14" s="3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q14" s="3">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>819722</v>
+        <v>819725</v>
       </c>
       <c r="E15" s="3">
-        <v>8.6</v>
+        <v>7.55</v>
       </c>
       <c r="F15" s="3">
-        <v>5.7</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G15" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H15" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="I15" s="3">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="J15" s="3">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K15" s="3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L15" s="3">
-        <v>8.5</v>
+        <v>7.05</v>
       </c>
       <c r="M15" s="3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N15" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.55</v>
       </c>
       <c r="O15" s="3">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="P15" s="3">
-        <v>4.6500000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="Q15" s="3">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>819705</v>
+        <v>819709</v>
       </c>
       <c r="E16" s="3">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="F16" s="3">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="G16" s="3">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="H16" s="3">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="I16" s="3">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="J16" s="3">
-        <v>2.75</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K16" s="3">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="L16" s="3">
-        <v>7.65</v>
+        <v>6.2</v>
       </c>
       <c r="M16" s="3">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="N16" s="3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O16" s="3">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="P16" s="3">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" s="3">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>819714</v>
+        <v>819718</v>
       </c>
       <c r="E17" s="3">
-        <v>8.3000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="F17" s="3">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="G17" s="3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I17" s="3">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J17" s="3">
-        <v>2.62</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K17" s="3">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L17" s="3">
-        <v>7.85</v>
+        <v>6.4</v>
       </c>
       <c r="M17" s="3">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="N17" s="3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O17" s="3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="P17" s="3">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" s="3">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>819723</v>
+        <v>819726</v>
       </c>
       <c r="E18" s="3">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F18" s="3">
-        <v>4.8499999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="G18" s="3">
         <v>2.9</v>
       </c>
       <c r="H18" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="P18" s="3">
         <v>3.45</v>
       </c>
-      <c r="I18" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2.42</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3.5</v>
-      </c>
       <c r="Q18" s="3">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>819702</v>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="3">
-        <v>7</v>
+        <v>10.8</v>
       </c>
       <c r="F19" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P19" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="Q19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="L19" s="3">
-        <v>7.34</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O19" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>2.75</v>
-      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>819711</v>
+        <v>819719</v>
       </c>
       <c r="E20" s="3">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="F20" s="3">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="G20" s="3">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H20" s="3">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="J20" s="3">
-        <v>1.78</v>
+        <v>3.5</v>
       </c>
       <c r="K20" s="3">
-        <v>1.19</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L20" s="3">
-        <v>6.75</v>
+        <v>9.1</v>
       </c>
       <c r="M20" s="3">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="N20" s="3">
-        <v>1.06</v>
+        <v>1.8</v>
       </c>
       <c r="O20" s="3">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2.5499999999999998</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>819703</v>
+        <v>819727</v>
       </c>
       <c r="E21" s="3">
-        <v>6.6</v>
+        <v>10.6</v>
       </c>
       <c r="F21" s="3">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="G21" s="3">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="H21" s="3">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="J21" s="3">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="K21" s="3">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="L21" s="3">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="M21" s="3">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="3">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="O21" s="3">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="P21" s="3">
-        <v>3.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q21" s="3">
-        <v>2.6</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>819712</v>
+        <v>819710</v>
       </c>
       <c r="E22" s="3">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="F22" s="3">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="G22" s="3">
-        <v>2.7</v>
+        <v>3.47</v>
       </c>
       <c r="H22" s="3">
-        <v>3.2</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I22" s="3">
-        <v>2.7</v>
+        <v>4.45</v>
       </c>
       <c r="J22" s="3">
-        <v>1.8</v>
+        <v>3.55</v>
       </c>
       <c r="K22" s="3">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="L22" s="3">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M22" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="N22" s="3">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="O22" s="3">
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P22" s="3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>819720</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J23" s="3">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+      <c r="K23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O23" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5.15</v>
+      </c>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>819728</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="L24" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>819733</v>
+      </c>
+      <c r="E25" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>819734</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>819735</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L27" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>819736</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P28" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>819737</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="L29" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P29" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>819741</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.45</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L30" s="3">
+        <v>8</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P30" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>4</v>
+      </c>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>819745</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.35</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="L31" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O31" s="3">
+        <v>5</v>
+      </c>
+      <c r="P31" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>819729</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L35" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>819739</v>
+      </c>
+      <c r="E36" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O36" s="3">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>819743</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="L37" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O37" s="3">
+        <v>4</v>
+      </c>
+      <c r="P37" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>819730</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="L38" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O38" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="P38" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>819740</v>
+      </c>
+      <c r="E39" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="L39" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="O39" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="P39" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>819744</v>
+      </c>
+      <c r="E40" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O40" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>819731</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="L41" s="3">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>819732</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L42" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>819702</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L43" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>819711</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L44" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P44" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>819703</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>819712</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L46" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
         <v>819721</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E47" s="3">
         <v>7.1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F47" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G47" s="3">
         <v>2.85</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H47" s="3">
         <v>3.3</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I47" s="3">
         <v>2.9</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J47" s="3">
         <v>1.8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K47" s="3">
         <v>1.25</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L47" s="3">
         <v>6.6</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M47" s="3">
         <v>0.53</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N47" s="3">
         <v>0.97</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O47" s="3">
         <v>3.65</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P47" s="3">
         <v>3.7</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q47" s="3">
         <v>2.6</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1079" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8281375F-4313-43F4-B908-CAAC7C80EE2F}"/>
+  <xr:revisionPtr revIDLastSave="1408" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33FBFCCB-F659-4E1F-89C0-0B782DF46AF2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="0" windowWidth="19120" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Carabids" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="88">
   <si>
     <t>Unit</t>
   </si>
@@ -172,9 +183,6 @@
     <t>Dicaelus_teter</t>
   </si>
   <si>
-    <t>needs Unique ID</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
@@ -215,6 +223,84 @@
   </si>
   <si>
     <t>Pterostichus_moestus</t>
+  </si>
+  <si>
+    <t>Sphaeroderus_stenostomus</t>
+  </si>
+  <si>
+    <t>Pterostichus_lachrymosus</t>
+  </si>
+  <si>
+    <t>Trichotichnus_autumnalis</t>
+  </si>
+  <si>
+    <t>Harpalus_spadiceus</t>
+  </si>
+  <si>
+    <t>Galerita_bicolor</t>
+  </si>
+  <si>
+    <t>Anisodactylus_nigerrimus</t>
+  </si>
+  <si>
+    <t>Agonum_fidele</t>
+  </si>
+  <si>
+    <t>Platynus_tenuicollis</t>
+  </si>
+  <si>
+    <t>Platynus_angustatus</t>
+  </si>
+  <si>
+    <t>Olisthopus_unknown_likely_parmatus</t>
+  </si>
+  <si>
+    <t>Carabus_goryi</t>
+  </si>
+  <si>
+    <t>Scaphinotus_viduus</t>
+  </si>
+  <si>
+    <t>Scaphinotus_andrewsii</t>
+  </si>
+  <si>
+    <t>Scaphinotus_ridingsii</t>
+  </si>
+  <si>
+    <t>Scaphinotus_imperfectus</t>
+  </si>
+  <si>
+    <t>Platynus_decentis</t>
+  </si>
+  <si>
+    <t>Platynus_hypolithos</t>
+  </si>
+  <si>
+    <t>Patrobus_longicornis</t>
+  </si>
+  <si>
+    <t>Synuchus_impunctatus</t>
+  </si>
+  <si>
+    <t>Anisodactylus_melanopus</t>
+  </si>
+  <si>
+    <t>Amarini_unknown</t>
+  </si>
+  <si>
+    <t>Notiophilus_aeneus</t>
+  </si>
+  <si>
+    <t>Agonoleptus_thoracicus</t>
+  </si>
+  <si>
+    <t>Amerizus_unknown</t>
+  </si>
+  <si>
+    <t>Cymindis_limbata</t>
+  </si>
+  <si>
+    <t>unknown_sex</t>
   </si>
 </sst>
 </file>
@@ -238,18 +324,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +351,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -746,23 +826,23 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -782,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -902,16 +982,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
@@ -959,10 +1040,10 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>15</v>
@@ -988,279 +1069,82 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>819706</v>
-      </c>
-      <c r="E2" s="3">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2.62</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>2</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>819611</v>
+      </c>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>819715</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.92</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2</v>
+        <v>819619</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>819707</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O4" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1.95</v>
+        <v>819616</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>819716</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>2</v>
+        <v>819613</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>819724</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.85</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>2</v>
+        <v>819605</v>
       </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1269,484 +1153,213 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>819704</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2.62</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="L7" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="P7" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>4.4000000000000004</v>
+        <v>819614</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>819713</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="L8" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3.95</v>
+        <v>819699</v>
       </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>819722</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>4.8</v>
+        <v>819634</v>
       </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>819705</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="L10" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4.5</v>
+        <v>819631</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>819714</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.62</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7.85</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N11" s="3">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="P11" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>4.3</v>
+        <v>819628</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>819723</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2.42</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3.7</v>
+        <v>819625</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>819708</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.37</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O13" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>3.1</v>
+        <v>819622</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>819717</v>
+        <v>819706</v>
       </c>
       <c r="E14" s="3">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="H14" s="3">
-        <v>3.65</v>
+        <v>2.62</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J14" s="3">
-        <v>2.35</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K14" s="3">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L14" s="3">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M14" s="3">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="N14" s="3">
-        <v>1.45</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O14" s="3">
-        <v>3.67</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P14" s="3">
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q14" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="R14" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>819725</v>
+        <v>819715</v>
       </c>
       <c r="E15" s="3">
-        <v>7.55</v>
+        <v>5.9</v>
       </c>
       <c r="F15" s="3">
-        <v>4.8499999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="G15" s="3">
-        <v>3.3</v>
+        <v>1.92</v>
       </c>
       <c r="H15" s="3">
-        <v>4.08</v>
+        <v>2.6</v>
       </c>
       <c r="I15" s="3">
-        <v>3.35</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J15" s="3">
-        <v>2.6</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K15" s="3">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="L15" s="3">
-        <v>7.05</v>
+        <v>3.1</v>
       </c>
       <c r="M15" s="3">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="N15" s="3">
-        <v>1.55</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O15" s="3">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="P15" s="3">
-        <v>3.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q15" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1755,52 +1368,52 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>819709</v>
+        <v>819707</v>
       </c>
       <c r="E16" s="3">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="F16" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="H16" s="3">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
       <c r="I16" s="3">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J16" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K16" s="3">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L16" s="3">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16" s="3">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="N16" s="3">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O16" s="3">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P16" s="3">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q16" s="3">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1809,52 +1422,52 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>819718</v>
+        <v>819716</v>
       </c>
       <c r="E17" s="3">
-        <v>7.3</v>
+        <v>5.75</v>
       </c>
       <c r="F17" s="3">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="H17" s="3">
-        <v>3.8</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I17" s="3">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K17" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="L17" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3.7</v>
-      </c>
       <c r="P17" s="3">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" s="3">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1863,52 +1476,52 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>819726</v>
+        <v>819724</v>
       </c>
       <c r="E18" s="3">
-        <v>7.5</v>
+        <v>5.85</v>
       </c>
       <c r="F18" s="3">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H18" s="3">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="I18" s="3">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J18" s="3">
-        <v>2.39</v>
+        <v>2.1</v>
       </c>
       <c r="K18" s="3">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L18" s="3">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="M18" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N18" s="3">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O18" s="3">
-        <v>3.55</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P18" s="3">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" s="3">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1916,53 +1529,14 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K19" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="L19" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O19" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="P19" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>5</v>
+      <c r="D19">
+        <v>819636</v>
       </c>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1971,54 +1545,13 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>819719</v>
-      </c>
-      <c r="E20" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="L20" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O20" s="3">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>819639</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2027,52 +1560,13 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>819727</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O21" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="P21" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>4.5</v>
+        <v>819642</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2081,52 +1575,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>819710</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3.47</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4.45</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4.5</v>
+        <v>819645</v>
       </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2135,52 +1590,13 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>819720</v>
-      </c>
-      <c r="E23" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O23" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>5.15</v>
+        <v>819648</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2189,52 +1605,13 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>819728</v>
-      </c>
-      <c r="E24" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O24" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>5.0999999999999996</v>
+        <v>819651</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2243,162 +1620,160 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>819733</v>
+        <v>819704</v>
       </c>
       <c r="E25" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="F25" s="3">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="G25" s="3">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H25" s="3">
-        <v>5.26</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
-        <v>2.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J25" s="3">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K25" s="3">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="L25" s="3">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="M25" s="3">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="N25" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O25" s="3">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="P25" s="3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q25" s="3">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>819734</v>
+        <v>819713</v>
       </c>
       <c r="E26" s="3">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="F26" s="3">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="G26" s="3">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="H26" s="3">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="I26" s="3">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J26" s="3">
-        <v>3.03</v>
+        <v>2.35</v>
       </c>
       <c r="K26" s="3">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="L26" s="3">
-        <v>4.9000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="M26" s="3">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N26" s="3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="3">
-        <v>3.3</v>
+        <v>4.05</v>
       </c>
       <c r="P26" s="3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q26" s="3">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>819735</v>
+        <v>819722</v>
       </c>
       <c r="E27" s="3">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="F27" s="3">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G27" s="3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H27" s="3">
-        <v>4.8499999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I27" s="3">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J27" s="3">
         <v>2.7</v>
       </c>
       <c r="K27" s="3">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="L27" s="3">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="M27" s="3">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="N27" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O27" s="3">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P27" s="3">
-        <v>3.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="Q27" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2407,378 +1782,490 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>819736</v>
+        <v>819705</v>
       </c>
       <c r="E28" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G28" s="3">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H28" s="3">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="I28" s="3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="J28" s="3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K28" s="3">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L28" s="3">
-        <v>5.9</v>
+        <v>7.65</v>
       </c>
       <c r="M28" s="3">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="N28" s="3">
         <v>2</v>
       </c>
       <c r="O28" s="3">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="P28" s="3">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q28" s="3">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>819737</v>
+        <v>819714</v>
       </c>
       <c r="E29" s="3">
-        <v>9.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F29" s="3">
-        <v>5.8</v>
+        <v>5.25</v>
       </c>
       <c r="G29" s="3">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H29" s="3">
-        <v>4.6500000000000004</v>
+        <v>3.85</v>
       </c>
       <c r="I29" s="3">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="J29" s="3">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="K29" s="3">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="L29" s="3">
-        <v>8.6999999999999993</v>
+        <v>7.85</v>
       </c>
       <c r="M29" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N29" s="3">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="O29" s="3">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="P29" s="3">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="Q29" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>819741</v>
+        <v>819723</v>
       </c>
       <c r="E30" s="3">
-        <v>8.8000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="F30" s="3">
-        <v>5.45</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G30" s="3">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="H30" s="3">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="I30" s="3">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="J30" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L30" s="3">
+        <v>7</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P30" s="3">
         <v>3.5</v>
       </c>
-      <c r="K30" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="L30" s="3">
-        <v>8</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N30" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P30" s="3">
-        <v>4.2</v>
-      </c>
       <c r="Q30" s="3">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>819745</v>
-      </c>
-      <c r="E31" s="3">
-        <v>9.35</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5.95</v>
-      </c>
-      <c r="G31" s="3">
+        <v>819617</v>
+      </c>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>819708</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.37</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="P32" s="3">
         <v>3.5</v>
       </c>
-      <c r="H31" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I31" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="J31" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="K31" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="L31" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O31" s="3">
-        <v>5</v>
-      </c>
-      <c r="P31" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>4.45</v>
-      </c>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q32" s="3">
+        <v>3.1</v>
+      </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>819717</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="P33" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>3.2</v>
+      </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>819725</v>
+      </c>
+      <c r="E34" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L34" s="3">
+        <v>7.05</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P34" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>3.5</v>
+      </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>819729</v>
+        <v>819709</v>
       </c>
       <c r="E35" s="3">
-        <v>7.65</v>
+        <v>7.4</v>
       </c>
       <c r="F35" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G35" s="3">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="H35" s="3">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I35" s="3">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J35" s="3">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K35" s="3">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L35" s="3">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="M35" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="N35" s="3">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="O35" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P35" s="3">
         <v>3.4</v>
       </c>
       <c r="Q35" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>819739</v>
+        <v>819718</v>
       </c>
       <c r="E36" s="3">
-        <v>8.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="F36" s="3">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="G36" s="3">
+        <v>3</v>
+      </c>
+      <c r="H36" s="3">
         <v>3.8</v>
       </c>
-      <c r="H36" s="3">
-        <v>4.5</v>
-      </c>
       <c r="I36" s="3">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="J36" s="3">
-        <v>3.7</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K36" s="3">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="L36" s="3">
         <v>6.4</v>
       </c>
       <c r="M36" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="N36" s="3">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="O36" s="3">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="P36" s="3">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q36" s="3">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>819743</v>
+        <v>819726</v>
       </c>
       <c r="E37" s="3">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="F37" s="3">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="G37" s="3">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="H37" s="3">
-        <v>4.45</v>
+        <v>3.7</v>
       </c>
       <c r="I37" s="3">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="J37" s="3">
-        <v>3.8</v>
+        <v>2.39</v>
       </c>
       <c r="K37" s="3">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="L37" s="3">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M37" s="3">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="N37" s="3">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="O37" s="3">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="P37" s="3">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="Q37" s="3">
         <v>3.1</v>
@@ -2787,537 +2274,2172 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <v>819730</v>
+      <c r="D38" s="4">
+        <v>819604</v>
       </c>
       <c r="E38" s="3">
-        <v>8.6999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="F38" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="L38" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O38" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P38" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="Q38" s="3">
         <v>5</v>
-      </c>
-      <c r="G38" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H38" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="I38" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J38" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="L38" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O38" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="P38" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>2.8</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>819740</v>
+        <v>819719</v>
       </c>
       <c r="E39" s="3">
-        <v>8.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="F39" s="3">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="G39" s="3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H39" s="3">
-        <v>4.3499999999999996</v>
+        <v>5</v>
       </c>
       <c r="I39" s="3">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="J39" s="3">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K39" s="3">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L39" s="3">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="M39" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N39" s="3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O39" s="3">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="P39" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="R39" s="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>819744</v>
+        <v>819727</v>
       </c>
       <c r="E40" s="3">
-        <v>8.5</v>
+        <v>10.6</v>
       </c>
       <c r="F40" s="3">
-        <v>4.92</v>
+        <v>6.4</v>
       </c>
       <c r="G40" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J40" s="3">
         <v>3.5</v>
       </c>
-      <c r="H40" s="3">
-        <v>4</v>
-      </c>
-      <c r="I40" s="3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3.3</v>
-      </c>
       <c r="K40" s="3">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L40" s="3">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="M40" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="N40" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O40" s="3">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="P40" s="3">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q40" s="3">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>819731</v>
+        <v>819710</v>
       </c>
       <c r="E41" s="3">
-        <v>5.8</v>
+        <v>10.1</v>
       </c>
       <c r="F41" s="3">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="G41" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.47</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I41" s="3">
-        <v>2.9</v>
+        <v>4.45</v>
       </c>
       <c r="J41" s="3">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="K41" s="3">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="L41" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M41" s="3">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="N41" s="3">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="O41" s="3">
-        <v>2.2999999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P41" s="3">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q41" s="3">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>819732</v>
+        <v>819720</v>
       </c>
       <c r="E42" s="3">
-        <v>6</v>
+        <v>11.6</v>
       </c>
       <c r="F42" s="3">
-        <v>3.8</v>
+        <v>7.25</v>
       </c>
       <c r="G42" s="3">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="H42" s="3">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="I42" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
         <v>3.1</v>
       </c>
-      <c r="J42" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1.75</v>
-      </c>
       <c r="L42" s="3">
-        <v>4.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M42" s="3">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="N42" s="3">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="O42" s="3">
-        <v>2.4500000000000002</v>
+        <v>5.3</v>
       </c>
       <c r="P42" s="3">
-        <v>2.2999999999999998</v>
+        <v>5.7</v>
       </c>
       <c r="Q42" s="3">
-        <v>1.8</v>
+        <v>5.15</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>819702</v>
+        <v>819728</v>
       </c>
       <c r="E43" s="3">
-        <v>7</v>
+        <v>11.2</v>
       </c>
       <c r="F43" s="3">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="G43" s="3">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="H43" s="3">
-        <v>3.45</v>
+        <v>5.7</v>
       </c>
       <c r="I43" s="3">
-        <v>3.13</v>
+        <v>5.7</v>
       </c>
       <c r="J43" s="3">
-        <v>1.8</v>
+        <v>4.05</v>
       </c>
       <c r="K43" s="3">
-        <v>1.28</v>
+        <v>3.05</v>
       </c>
       <c r="L43" s="3">
-        <v>7.34</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M43" s="3">
-        <v>0.51</v>
+        <v>0.9</v>
       </c>
       <c r="N43" s="3">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="O43" s="3">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="P43" s="3">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="Q43" s="3">
-        <v>2.75</v>
-      </c>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>819711</v>
-      </c>
-      <c r="E44" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2.86</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="P44" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2.5499999999999998</v>
-      </c>
+        <v>819640</v>
+      </c>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>819703</v>
-      </c>
-      <c r="E45" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L45" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2.6</v>
-      </c>
+        <v>819637</v>
+      </c>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>819712</v>
-      </c>
-      <c r="E46" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L46" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P46" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>819658</v>
+      </c>
+      <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>819655</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>819652</v>
+      </c>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>819649</v>
+      </c>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>819646</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>819643</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>819733</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L52" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O52" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>819734</v>
+      </c>
+      <c r="E53" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F53" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="L53" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O53" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P53" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>819608</v>
+      </c>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>819630</v>
+      </c>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>819633</v>
+      </c>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>819693</v>
+      </c>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>819612</v>
+      </c>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>819615</v>
+      </c>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>819618</v>
+      </c>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>819621</v>
+      </c>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>819624</v>
+      </c>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>819627</v>
+      </c>
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>819687</v>
+      </c>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>819690</v>
+      </c>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>819610</v>
+      </c>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>819607</v>
+      </c>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>819603</v>
+      </c>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>819606</v>
+      </c>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>819609</v>
+      </c>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>819735</v>
+      </c>
+      <c r="E71" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F71" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G71" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I71" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="J71" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L71" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N71" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O71" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P71" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>819736</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L72" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2</v>
+      </c>
+      <c r="O72" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P72" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>819682</v>
+      </c>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>819679</v>
+      </c>
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>819676</v>
+      </c>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>819673</v>
+      </c>
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>819670</v>
+      </c>
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>819667</v>
+      </c>
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>819737</v>
+      </c>
+      <c r="E79" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G79" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H79" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I79" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J79" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K79" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="L79" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N79" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O79" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P79" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>819741</v>
+      </c>
+      <c r="E80" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F80" s="3">
+        <v>5.45</v>
+      </c>
+      <c r="G80" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="H80" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I80" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="J80" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K80" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L80" s="3">
+        <v>8</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N80" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="O80" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P80" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>4</v>
+      </c>
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>819745</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9.35</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="L81" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O81" s="3">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>819729</v>
+      </c>
+      <c r="E85" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H85" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I85" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L85" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N85" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="O85" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P85" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>819739</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F86" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G86" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I86" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K86" s="3">
+        <v>3</v>
+      </c>
+      <c r="L86" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N86" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O86" s="3">
+        <v>4</v>
+      </c>
+      <c r="P86" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>819743</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G87" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H87" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="I87" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J87" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="K87" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="L87" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O87" s="3">
+        <v>4</v>
+      </c>
+      <c r="P87" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>819730</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5</v>
+      </c>
+      <c r="G88" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H88" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I88" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J88" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K88" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="L88" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N88" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O88" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="P88" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>819740</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="L89" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="O89" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="P89" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>819744</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F90" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="G90" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H90" s="3">
+        <v>4</v>
+      </c>
+      <c r="I90" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J90" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K90" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L90" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O90" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="P90" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>819731</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="G91" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H91" s="3">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="L91" s="3">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="O91" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P91" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>819732</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6</v>
+      </c>
+      <c r="F92" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I92" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="K92" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L92" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="O92" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P92" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>819660</v>
+      </c>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>819663</v>
+      </c>
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>819672</v>
+      </c>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>819675</v>
+      </c>
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>819678</v>
+      </c>
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>819681</v>
+      </c>
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>819684</v>
+      </c>
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>819666</v>
+      </c>
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>819669</v>
+      </c>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>819654</v>
+      </c>
+      <c r="R102" s="3"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>819657</v>
+      </c>
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>819702</v>
+      </c>
+      <c r="E104" s="3">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3">
+        <v>5</v>
+      </c>
+      <c r="G104" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H104" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I104" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L104" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O104" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P104" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>819711</v>
+      </c>
+      <c r="E105" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F105" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G105" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H105" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L105" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N105" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="O105" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P105" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>819703</v>
+      </c>
+      <c r="E106" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G106" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H106" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L106" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N106" s="3">
+        <v>1</v>
+      </c>
+      <c r="O106" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P106" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>819712</v>
+      </c>
+      <c r="E107" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F107" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G107" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="H107" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K107" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L107" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N107" s="3">
+        <v>1</v>
+      </c>
+      <c r="O107" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P107" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
         <v>819721</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E108" s="3">
         <v>7.1</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F108" s="3">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G108" s="3">
         <v>2.85</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H108" s="3">
         <v>3.3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I108" s="3">
         <v>2.9</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J108" s="3">
         <v>1.8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K108" s="3">
         <v>1.25</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L108" s="3">
         <v>6.6</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M108" s="3">
         <v>0.53</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N108" s="3">
         <v>0.97</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O108" s="3">
         <v>3.65</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P108" s="3">
         <v>3.7</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q108" s="3">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>819700</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>819697</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>819694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>819691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>819688</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>819685</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>819696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>819664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>819661</v>
       </c>
     </row>
   </sheetData>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1408" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33FBFCCB-F659-4E1F-89C0-0B782DF46AF2}"/>
+  <xr:revisionPtr revIDLastSave="1576" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01C78EE-D756-478E-BFEA-72029D55DD07}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="0" windowWidth="19120" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="89">
   <si>
     <t>Unit</t>
   </si>
@@ -51,9 +51,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>Distance between marginal sides of elytra or abdomen at widest point</t>
-  </si>
-  <si>
     <t>Wind development</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>unknown_sex</t>
+  </si>
+  <si>
+    <t>Distance between marginal sides of elytra or abdomen at widest point. If the elytra are widely separated, then measure width of one elytron and multiply by 2.</t>
+  </si>
+  <si>
+    <t>Pterostichus_tristis</t>
   </si>
 </sst>
 </file>
@@ -344,14 +347,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,10 +753,10 @@
     <row r="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -765,7 +767,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
@@ -775,80 +777,80 @@
     </row>
     <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -856,54 +858,54 @@
     </row>
     <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
+      <c r="D34" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -911,67 +913,67 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -982,11 +984,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,63 +1015,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1084,7 +1086,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1099,7 +1101,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1114,7 +1116,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1159,10 +1161,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1174,10 +1176,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1189,10 +1191,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1204,10 +1206,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1219,7 +1221,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1234,7 +1236,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1249,10 +1251,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1300,15 +1302,15 @@
         <v>2</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1359,7 +1361,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1413,7 +1415,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1467,7 +1469,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1521,10 +1523,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1536,10 +1538,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1551,10 +1553,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1566,7 +1568,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1581,7 +1583,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1596,7 +1598,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1611,10 +1613,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1665,10 +1667,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1719,10 +1721,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1773,7 +1775,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1827,7 +1829,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1881,7 +1883,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1935,10 +1937,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
         <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1950,10 +1952,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2004,10 +2006,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2058,10 +2060,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2112,7 +2114,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2166,7 +2168,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2220,7 +2222,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2274,15 +2276,15 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <v>819604</v>
       </c>
       <c r="E38" s="3">
@@ -2328,10 +2330,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2376,18 +2378,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2438,7 +2440,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2492,7 +2494,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2546,7 +2548,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2600,7 +2602,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2615,7 +2617,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2630,10 +2632,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2645,10 +2647,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2660,10 +2662,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2675,7 +2677,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2690,7 +2692,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2705,7 +2707,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2720,10 +2722,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2774,7 +2776,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2828,10 +2830,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2843,7 +2845,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2858,7 +2860,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2873,7 +2875,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2888,10 +2890,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2903,10 +2905,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2918,10 +2920,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2933,7 +2935,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2948,7 +2950,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2963,7 +2965,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2978,10 +2980,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2993,10 +2995,10 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3008,10 +3010,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3023,10 +3025,10 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -3038,7 +3040,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -3053,7 +3055,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -3068,7 +3070,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -3083,10 +3085,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3134,12 +3136,12 @@
         <v>3.45</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3193,10 +3195,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3208,10 +3210,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -3223,10 +3225,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -3238,7 +3240,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3253,7 +3255,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -3268,7 +3270,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -3283,10 +3285,10 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3337,10 +3339,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -3391,10 +3393,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -3444,20 +3446,173 @@
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>819738</v>
+      </c>
+      <c r="E82" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="F82" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="I82" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K82" s="3">
+        <v>3</v>
+      </c>
+      <c r="L82" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M82" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N82" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O82" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P82" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>819742</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K83" s="3">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O83" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P83" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>4.3</v>
+      </c>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>819746</v>
+      </c>
+      <c r="E84" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F84" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G84" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H84" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I84" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="J84" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="K84" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L84" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N84" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="O84" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="P84" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>3.5</v>
+      </c>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3505,15 +3660,15 @@
         <v>2.6</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -3564,10 +3719,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -3618,7 +3773,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3672,7 +3827,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3726,7 +3881,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3780,10 +3935,10 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3834,7 +3989,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3888,121 +4043,355 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>819660</v>
+        <v>819747</v>
+      </c>
+      <c r="E93" s="3">
+        <v>7.45</v>
+      </c>
+      <c r="F93" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I93" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J93" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L93" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O93" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P93" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>2.7</v>
       </c>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>819663</v>
+        <v>819757</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="L94" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="P94" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>2.7</v>
       </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>819672</v>
+        <v>819767</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H95" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I95" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="J95" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K95" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L95" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O95" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P95" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>3</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>819675</v>
+        <v>819748</v>
+      </c>
+      <c r="E96" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="F96" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G96" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H96" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K96" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L96" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O96" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="P96" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>2.65</v>
       </c>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>819678</v>
+        <v>819758</v>
+      </c>
+      <c r="E97" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F97" s="3">
+        <v>5</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H97" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I97" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J97" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K97" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L97" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N97" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="O97" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P97" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>3</v>
       </c>
       <c r="R97" s="3"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>819681</v>
+        <v>819768</v>
+      </c>
+      <c r="E98" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G98" s="3">
+        <v>3</v>
+      </c>
+      <c r="H98" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="J98" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="K98" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L98" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N98" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O98" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="P98" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>2.2999999999999998</v>
       </c>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>819684</v>
+        <v>819660</v>
       </c>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>819666</v>
+        <v>819663</v>
       </c>
       <c r="R100" s="3"/>
     </row>
@@ -4011,356 +4400,245 @@
         <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>819669</v>
+        <v>819672</v>
       </c>
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>819654</v>
+        <v>819675</v>
       </c>
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>819657</v>
+        <v>819678</v>
       </c>
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>819702</v>
-      </c>
-      <c r="E104" s="3">
-        <v>7</v>
-      </c>
-      <c r="F104" s="3">
-        <v>5</v>
-      </c>
-      <c r="G104" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="H104" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="I104" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="J104" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K104" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="L104" s="3">
-        <v>7.34</v>
-      </c>
-      <c r="M104" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="N104" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O104" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="P104" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="Q104" s="3">
-        <v>2.75</v>
-      </c>
+        <v>819681</v>
+      </c>
+      <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>819711</v>
-      </c>
-      <c r="E105" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F105" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G105" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H105" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="I105" s="3">
-        <v>2.86</v>
-      </c>
-      <c r="J105" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="K105" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="L105" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="M105" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N105" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="O105" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="P105" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q105" s="3">
-        <v>2.5499999999999998</v>
-      </c>
+        <v>819684</v>
+      </c>
+      <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>819703</v>
-      </c>
-      <c r="E106" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="F106" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G106" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H106" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="I106" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J106" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="K106" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L106" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="M106" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N106" s="3">
-        <v>1</v>
-      </c>
-      <c r="O106" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="P106" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q106" s="3">
-        <v>2.6</v>
-      </c>
+        <v>819666</v>
+      </c>
+      <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>819712</v>
-      </c>
-      <c r="E107" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F107" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G107" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="H107" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="I107" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="J107" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K107" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L107" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="M107" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N107" s="3">
-        <v>1</v>
-      </c>
-      <c r="O107" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P107" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q107" s="3">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>819669</v>
+      </c>
+      <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>819721</v>
-      </c>
-      <c r="E108" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="F108" s="3">
-        <v>5</v>
-      </c>
-      <c r="G108" s="3">
-        <v>2.85</v>
-      </c>
-      <c r="H108" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="I108" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J108" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K108" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="L108" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="M108" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N108" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="O108" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="P108" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="Q108" s="3">
-        <v>2.6</v>
-      </c>
+        <v>819654</v>
+      </c>
+      <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>819700</v>
-      </c>
+        <v>819657</v>
+      </c>
+      <c r="R109" s="3"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>819697</v>
+        <v>819702</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3">
+        <v>5</v>
+      </c>
+      <c r="G110" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H110" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I110" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J110" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L110" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N110" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O110" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P110" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>2.75</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>819694</v>
+        <v>819711</v>
+      </c>
+      <c r="E111" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F111" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G111" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H111" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L111" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="O111" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P111" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -4369,76 +4647,277 @@
         <v>1</v>
       </c>
       <c r="D112">
+        <v>819703</v>
+      </c>
+      <c r="E112" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="F112" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G112" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H112" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L112" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P112" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>819712</v>
+      </c>
+      <c r="E113" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F113" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G113" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="H113" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J113" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K113" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L113" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N113" s="3">
+        <v>1</v>
+      </c>
+      <c r="O113" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P113" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>819721</v>
+      </c>
+      <c r="E114" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>5</v>
+      </c>
+      <c r="G114" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="H114" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J114" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="L114" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="O114" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="P114" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>819700</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>819697</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>819694</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
         <v>819691</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
         <v>819688</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-      <c r="D114">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
         <v>819685</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>80</v>
-      </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
         <v>819696</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>64</v>
-      </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
         <v>819664</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
         <v>819661</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1576" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01C78EE-D756-478E-BFEA-72029D55DD07}"/>
+  <xr:revisionPtr revIDLastSave="1751" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69FBDFC-EC1A-47A0-9213-151013C68357}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="91">
   <si>
     <t>Unit</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Pterostichus_tristis</t>
+  </si>
+  <si>
+    <t>Pterostichus_adoxus</t>
+  </si>
+  <si>
+    <t>Pterostichus_coracinus</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -984,11 +990,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3085,7 +3091,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -3094,99 +3100,97 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>819735</v>
+        <v>819749</v>
       </c>
       <c r="E71" s="3">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F71" s="3">
-        <v>5.8</v>
+        <v>5.05</v>
       </c>
       <c r="G71" s="3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H71" s="3">
-        <v>4.8499999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I71" s="3">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J71" s="3">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="K71" s="3">
+        <v>2</v>
+      </c>
+      <c r="L71" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N71" s="3">
         <v>1.9</v>
       </c>
-      <c r="L71" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N71" s="3">
-        <v>2.0499999999999998</v>
-      </c>
       <c r="O71" s="3">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P71" s="3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Q71" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="R71" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>819736</v>
+        <v>819759</v>
       </c>
       <c r="E72" s="3">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="F72" s="3">
-        <v>6</v>
+        <v>5.05</v>
       </c>
       <c r="G72" s="3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H72" s="3">
-        <v>4.75</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I72" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J72" s="3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K72" s="3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L72" s="3">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="M72" s="3">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N72" s="3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O72" s="3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P72" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q72" s="3">
         <v>3.3</v>
@@ -3195,97 +3199,333 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>819682</v>
+        <v>819769</v>
+      </c>
+      <c r="E73" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F73" s="3">
+        <v>5.35</v>
+      </c>
+      <c r="G73" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="H73" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I73" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="J73" s="3">
+        <v>3</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L73" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N73" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O73" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="P73" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>3.55</v>
       </c>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>819679</v>
+        <v>819750</v>
+      </c>
+      <c r="E74" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="G74" s="3">
+        <v>4</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I74" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J74" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="K74" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L74" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O74" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="P74" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>3.25</v>
       </c>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>819676</v>
+        <v>819760</v>
+      </c>
+      <c r="E75" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="I75" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N75" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O75" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="P75" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>3.3</v>
       </c>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>819673</v>
+        <v>819770</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2</v>
+      </c>
+      <c r="L76" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="O76" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P76" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>3</v>
       </c>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>819670</v>
-      </c>
-      <c r="R77" s="3"/>
+        <v>819735</v>
+      </c>
+      <c r="E77" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F77" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G77" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I77" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L77" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N77" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O77" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P77" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>819667</v>
+        <v>819736</v>
+      </c>
+      <c r="E78" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F78" s="3">
+        <v>6</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I78" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J78" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L78" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N78" s="3">
+        <v>2</v>
+      </c>
+      <c r="O78" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P78" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>3.3</v>
       </c>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -3294,52 +3534,52 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>819737</v>
+        <v>819751</v>
       </c>
       <c r="E79" s="3">
-        <v>9.1</v>
+        <v>8.65</v>
       </c>
       <c r="F79" s="3">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G79" s="3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H79" s="3">
-        <v>4.6500000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I79" s="3">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J79" s="3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K79" s="3">
-        <v>2.65</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L79" s="3">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="M79" s="3">
         <v>0.9</v>
       </c>
       <c r="N79" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O79" s="3">
         <v>4.7</v>
       </c>
       <c r="P79" s="3">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q79" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -3348,52 +3588,52 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>819741</v>
+        <v>819761</v>
       </c>
       <c r="E80" s="3">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="F80" s="3">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="G80" s="3">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="H80" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I80" s="3">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="J80" s="3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K80" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L80" s="3">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="M80" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N80" s="3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O80" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="P80" s="3">
         <v>4.2</v>
       </c>
       <c r="Q80" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -3402,214 +3642,70 @@
         <v>3</v>
       </c>
       <c r="D81">
-        <v>819745</v>
+        <v>819771</v>
       </c>
       <c r="E81" s="3">
-        <v>9.35</v>
+        <v>8.6</v>
       </c>
       <c r="F81" s="3">
-        <v>5.95</v>
+        <v>5.6</v>
       </c>
       <c r="G81" s="3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H81" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.55</v>
       </c>
       <c r="I81" s="3">
-        <v>5.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J81" s="3">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K81" s="3">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L81" s="3">
-        <v>8.6</v>
+        <v>7.55</v>
       </c>
       <c r="M81" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N81" s="3">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="O81" s="3">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="P81" s="3">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q81" s="3">
-        <v>4.45</v>
+        <v>3.6</v>
       </c>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>819738</v>
-      </c>
-      <c r="E82" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="F82" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="G82" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="H82" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="I82" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="J82" s="3">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K82" s="3">
-        <v>3</v>
-      </c>
-      <c r="L82" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="M82" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N82" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O82" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P82" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>4.4000000000000004</v>
+        <v>90</v>
       </c>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>819742</v>
-      </c>
-      <c r="E83" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P83" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>4.3</v>
+        <v>90</v>
       </c>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84">
-        <v>819746</v>
-      </c>
-      <c r="E84" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F84" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="G84" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H84" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I84" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J84" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K84" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="L84" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="M84" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="N84" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="O84" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="P84" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>3.5</v>
+        <v>90</v>
       </c>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -3618,54 +3714,13 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>819729</v>
-      </c>
-      <c r="E85" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="F85" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G85" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H85" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="I85" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J85" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K85" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L85" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="M85" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N85" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="O85" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="P85" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>819682</v>
+      </c>
+      <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3674,52 +3729,13 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>819739</v>
-      </c>
-      <c r="E86" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F86" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="G86" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H86" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I86" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="J86" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="K86" s="3">
-        <v>3</v>
-      </c>
-      <c r="L86" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N86" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O86" s="3">
-        <v>4</v>
-      </c>
-      <c r="P86" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>3.1</v>
+        <v>819679</v>
       </c>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3728,52 +3744,13 @@
         <v>3</v>
       </c>
       <c r="D87">
-        <v>819743</v>
-      </c>
-      <c r="E87" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="G87" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H87" s="3">
-        <v>4.45</v>
-      </c>
-      <c r="I87" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="J87" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="K87" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="L87" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="M87" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="N87" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O87" s="3">
-        <v>4</v>
-      </c>
-      <c r="P87" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>3.1</v>
+        <v>819676</v>
       </c>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3782,52 +3759,13 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>819730</v>
-      </c>
-      <c r="E88" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F88" s="3">
-        <v>5</v>
-      </c>
-      <c r="G88" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H88" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="I88" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J88" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K88" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="L88" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="M88" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N88" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O88" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="P88" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>2.8</v>
+        <v>819673</v>
       </c>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3836,52 +3774,13 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>819740</v>
-      </c>
-      <c r="E89" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F89" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G89" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I89" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="J89" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="L89" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="O89" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="P89" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>2.8</v>
+        <v>819670</v>
       </c>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3890,52 +3789,13 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>819744</v>
-      </c>
-      <c r="E90" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="F90" s="3">
-        <v>4.92</v>
-      </c>
-      <c r="G90" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H90" s="3">
-        <v>4</v>
-      </c>
-      <c r="I90" s="3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="J90" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="K90" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="L90" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="M90" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N90" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="O90" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="P90" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>2.6</v>
+        <v>819667</v>
       </c>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -3944,445 +3804,486 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>819731</v>
+        <v>819737</v>
       </c>
       <c r="E91" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F91" s="3">
         <v>5.8</v>
       </c>
-      <c r="F91" s="3">
-        <v>3.35</v>
-      </c>
       <c r="G91" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I91" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J91" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="L91" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N91" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H91" s="3">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J91" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="K91" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="L91" s="3">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="N91" s="3">
-        <v>1.28</v>
-      </c>
       <c r="O91" s="3">
-        <v>2.2999999999999998</v>
+        <v>4.7</v>
       </c>
       <c r="P91" s="3">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="Q91" s="3">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>819732</v>
+        <v>819741</v>
       </c>
       <c r="E92" s="3">
-        <v>6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F92" s="3">
-        <v>3.8</v>
+        <v>5.45</v>
       </c>
       <c r="G92" s="3">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="H92" s="3">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I92" s="3">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="J92" s="3">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="K92" s="3">
-        <v>1.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L92" s="3">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="M92" s="3">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="N92" s="3">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O92" s="3">
-        <v>2.4500000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P92" s="3">
-        <v>2.2999999999999998</v>
+        <v>4.2</v>
       </c>
       <c r="Q92" s="3">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>819747</v>
+        <v>819745</v>
       </c>
       <c r="E93" s="3">
-        <v>7.45</v>
+        <v>9.35</v>
       </c>
       <c r="F93" s="3">
-        <v>4.5</v>
+        <v>5.95</v>
       </c>
       <c r="G93" s="3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H93" s="3">
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I93" s="3">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="J93" s="3">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="K93" s="3">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L93" s="3">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="M93" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N93" s="3">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O93" s="3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P93" s="3">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="Q93" s="3">
-        <v>2.7</v>
+        <v>4.45</v>
       </c>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>819757</v>
+        <v>819738</v>
       </c>
       <c r="E94" s="3">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="F94" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="H94" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="I94" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K94" s="3">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M94" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N94" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O94" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P94" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q94" s="3">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="G94" s="3">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="J94" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="K94" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="L94" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="P94" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>2.7</v>
       </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>819767</v>
+        <v>819742</v>
       </c>
       <c r="E95" s="3">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="F95" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H95" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="I95" s="3">
+        <v>6</v>
+      </c>
+      <c r="J95" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3</v>
+      </c>
+      <c r="L95" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N95" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O95" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P95" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G95" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="H95" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="I95" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="J95" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="K95" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="L95" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="M95" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N95" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="O95" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="P95" s="3">
-        <v>3.4</v>
-      </c>
       <c r="Q95" s="3">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>819748</v>
+        <v>819746</v>
       </c>
       <c r="E96" s="3">
-        <v>7.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F96" s="3">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="G96" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H96" s="3">
-        <v>3.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I96" s="3">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="J96" s="3">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="K96" s="3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L96" s="3">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="M96" s="3">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="N96" s="3">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O96" s="3">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="P96" s="3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q96" s="3">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>819758</v>
+        <v>819729</v>
       </c>
       <c r="E97" s="3">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="F97" s="3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G97" s="3">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H97" s="3">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I97" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J97" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L97" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N97" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="O97" s="3">
         <v>3.5</v>
       </c>
-      <c r="J97" s="3">
+      <c r="P97" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q97" s="3">
         <v>2.6</v>
       </c>
-      <c r="K97" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="L97" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M97" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N97" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="O97" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P97" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>3</v>
-      </c>
-      <c r="R97" s="3"/>
+      <c r="R97" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>819768</v>
+        <v>819739</v>
       </c>
       <c r="E98" s="3">
-        <v>7.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F98" s="3">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="G98" s="3">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H98" s="3">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I98" s="3">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="J98" s="3">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="K98" s="3">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L98" s="3">
-        <v>4.9000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="M98" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N98" s="3">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="O98" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P98" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="Q98" s="3">
         <v>3.1</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>2.2999999999999998</v>
       </c>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>819660</v>
+        <v>819743</v>
+      </c>
+      <c r="E99" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G99" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H99" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="I99" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="K99" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="L99" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="N99" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O99" s="3">
+        <v>4</v>
+      </c>
+      <c r="P99" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>3.1</v>
       </c>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -4391,58 +4292,214 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>819663</v>
+        <v>819730</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I100" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="L100" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O100" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="P100" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>2.8</v>
       </c>
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>819672</v>
+        <v>819740</v>
+      </c>
+      <c r="E101" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F101" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I101" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="L101" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="O101" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="P101" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>2.8</v>
       </c>
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>819675</v>
+        <v>819744</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L102" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N102" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O102" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="P102" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>2.6</v>
       </c>
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>819678</v>
+        <v>819731</v>
+      </c>
+      <c r="E103" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="F103" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="G103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="L103" s="3">
+        <v>4</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="N103" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="O103" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P103" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>1.9</v>
       </c>
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -4451,473 +4508,926 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>819681</v>
+        <v>819732</v>
+      </c>
+      <c r="E104" s="3">
+        <v>6</v>
+      </c>
+      <c r="F104" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G104" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="H104" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I104" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J104" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L104" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="O104" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P104" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>1.8</v>
       </c>
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>819684</v>
+        <v>819747</v>
+      </c>
+      <c r="E105" s="3">
+        <v>7.45</v>
+      </c>
+      <c r="F105" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H105" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I105" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J105" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L105" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N105" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O105" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P105" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>2.7</v>
       </c>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>819666</v>
+        <v>819757</v>
+      </c>
+      <c r="E106" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G106" s="3">
+        <v>3</v>
+      </c>
+      <c r="H106" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J106" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="L106" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N106" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O106" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="P106" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>2.7</v>
       </c>
       <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>819669</v>
+        <v>819767</v>
+      </c>
+      <c r="E107" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F107" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G107" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H107" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I107" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="J107" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K107" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L107" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N107" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O107" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P107" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>3</v>
       </c>
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>819654</v>
+        <v>819748</v>
+      </c>
+      <c r="E108" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="F108" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G108" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H108" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I108" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K108" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L108" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N108" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O108" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="P108" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>2.65</v>
       </c>
       <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>819657</v>
+        <v>819758</v>
+      </c>
+      <c r="E109" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F109" s="3">
+        <v>5</v>
+      </c>
+      <c r="G109" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H109" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I109" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J109" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K109" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L109" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N109" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="O109" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P109" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>3</v>
       </c>
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>819702</v>
+        <v>819768</v>
       </c>
       <c r="E110" s="3">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F110" s="3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="G110" s="3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H110" s="3">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I110" s="3">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="J110" s="3">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K110" s="3">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="L110" s="3">
-        <v>7.34</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M110" s="3">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="N110" s="3">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="O110" s="3">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="P110" s="3">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q110" s="3">
-        <v>2.75</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R110" s="3"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>819711</v>
-      </c>
-      <c r="E111" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F111" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G111" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H111" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="I111" s="3">
-        <v>2.86</v>
-      </c>
-      <c r="J111" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="K111" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="L111" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="M111" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N111" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="O111" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="P111" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q111" s="3">
-        <v>2.5499999999999998</v>
-      </c>
+        <v>819660</v>
+      </c>
+      <c r="R111" s="3"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>819663</v>
+      </c>
+      <c r="R112" s="3"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>819672</v>
+      </c>
+      <c r="R113" s="3"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>819675</v>
+      </c>
+      <c r="R114" s="3"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>819678</v>
+      </c>
+      <c r="R115" s="3"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>819681</v>
+      </c>
+      <c r="R116" s="3"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>819684</v>
+      </c>
+      <c r="R117" s="3"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>819666</v>
+      </c>
+      <c r="R118" s="3"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>819669</v>
+      </c>
+      <c r="R119" s="3"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>819654</v>
+      </c>
+      <c r="R120" s="3"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>819657</v>
+      </c>
+      <c r="R121" s="3"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>37</v>
       </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>819702</v>
+      </c>
+      <c r="E122" s="3">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3">
+        <v>5</v>
+      </c>
+      <c r="G122" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H122" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I122" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K122" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L122" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N122" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O122" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P122" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>819711</v>
+      </c>
+      <c r="E123" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F123" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G123" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H123" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="J123" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="K123" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L123" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="M123" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N123" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="O123" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P123" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
         <v>819703</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E124" s="3">
         <v>6.6</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F124" s="3">
         <v>4.7</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G124" s="3">
         <v>2.6</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H124" s="3">
         <v>3.2</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I124" s="3">
         <v>2.9</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J124" s="3">
         <v>1.73</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K124" s="3">
         <v>1.2</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L124" s="3">
         <v>6.7</v>
       </c>
-      <c r="M112" s="3">
+      <c r="M124" s="3">
         <v>0.53</v>
       </c>
-      <c r="N112" s="3">
-        <v>1</v>
-      </c>
-      <c r="O112" s="3">
+      <c r="N124" s="3">
+        <v>1</v>
+      </c>
+      <c r="O124" s="3">
         <v>3.3</v>
       </c>
-      <c r="P112" s="3">
+      <c r="P124" s="3">
         <v>3.5</v>
       </c>
-      <c r="Q112" s="3">
+      <c r="Q124" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>37</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
         <v>819712</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E125" s="3">
         <v>6.8</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F125" s="3">
         <v>4.7</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G125" s="3">
         <v>2.7</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H125" s="3">
         <v>3.2</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I125" s="3">
         <v>2.7</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J125" s="3">
         <v>1.8</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K125" s="3">
         <v>1.2</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L125" s="3">
         <v>6.5</v>
       </c>
-      <c r="M113" s="3">
+      <c r="M125" s="3">
         <v>0.5</v>
       </c>
-      <c r="N113" s="3">
-        <v>1</v>
-      </c>
-      <c r="O113" s="3">
+      <c r="N125" s="3">
+        <v>1</v>
+      </c>
+      <c r="O125" s="3">
         <v>3.6</v>
       </c>
-      <c r="P113" s="3">
+      <c r="P125" s="3">
         <v>3.5</v>
       </c>
-      <c r="Q113" s="3">
+      <c r="Q125" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>37</v>
       </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-      <c r="D114">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
         <v>819721</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E126" s="3">
         <v>7.1</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F126" s="3">
         <v>5</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G126" s="3">
         <v>2.85</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H126" s="3">
         <v>3.3</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I126" s="3">
         <v>2.9</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J126" s="3">
         <v>1.8</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K126" s="3">
         <v>1.25</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L126" s="3">
         <v>6.6</v>
       </c>
-      <c r="M114" s="3">
+      <c r="M126" s="3">
         <v>0.53</v>
       </c>
-      <c r="N114" s="3">
+      <c r="N126" s="3">
         <v>0.97</v>
       </c>
-      <c r="O114" s="3">
+      <c r="O126" s="3">
         <v>3.65</v>
       </c>
-      <c r="P114" s="3">
+      <c r="P126" s="3">
         <v>3.7</v>
       </c>
-      <c r="Q114" s="3">
+      <c r="Q126" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>61</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
         <v>819700</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>61</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
         <v>819697</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>61</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
         <v>819694</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>61</v>
       </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
         <v>819691</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>61</v>
       </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
         <v>819688</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>61</v>
       </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
         <v>819685</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>79</v>
       </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
         <v>819696</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>63</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
         <v>819664</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>63</v>
       </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123">
-        <v>2</v>
-      </c>
-      <c r="D123">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
         <v>819661</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1751" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69FBDFC-EC1A-47A0-9213-151013C68357}"/>
+  <xr:revisionPtr revIDLastSave="2017" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836EC77A-BD4E-4B4C-9E9B-96C39FC4C4B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="93">
   <si>
     <t>Unit</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>Pterostichus_coracinus</t>
+  </si>
+  <si>
+    <t>Cyclotrachelus_unknown_likely_sigillatus_or_convivus_or_mixed</t>
+  </si>
+  <si>
+    <t>Pterostichus_stygicus</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -990,11 +996,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1943,346 +1949,346 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>819617</v>
+        <v>819753</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O31" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="P31" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>3.9</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>819708</v>
+        <v>819763</v>
       </c>
       <c r="E32" s="3">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F32" s="3">
-        <v>4.37</v>
+        <v>5.7</v>
       </c>
       <c r="G32" s="3">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="H32" s="3">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I32" s="3">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J32" s="3">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="K32" s="3">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L32" s="3">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="M32" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N32" s="3">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O32" s="3">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="P32" s="3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q32" s="3">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>819717</v>
+        <v>819773</v>
       </c>
       <c r="E33" s="3">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L33" s="3">
         <v>7.1</v>
       </c>
-      <c r="F33" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="L33" s="3">
-        <v>6.5</v>
-      </c>
       <c r="M33" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N33" s="3">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="O33" s="3">
-        <v>3.67</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P33" s="3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q33" s="3">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>819725</v>
+        <v>819754</v>
       </c>
       <c r="E34" s="3">
-        <v>7.55</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F34" s="3">
-        <v>4.8499999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="G34" s="3">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H34" s="3">
-        <v>4.08</v>
+        <v>5</v>
       </c>
       <c r="I34" s="3">
-        <v>3.35</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J34" s="3">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="K34" s="3">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="L34" s="3">
-        <v>7.05</v>
+        <v>6.3</v>
       </c>
       <c r="M34" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N34" s="3">
-        <v>1.55</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O34" s="3">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P34" s="3">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q34" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>819709</v>
+        <v>819764</v>
       </c>
       <c r="E35" s="3">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="F35" s="3">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="G35" s="3">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="H35" s="3">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" s="3">
-        <v>3.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J35" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="K35" s="3">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L35" s="3">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="M35" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N35" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O35" s="3">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P35" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3.4</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>2.9</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>819718</v>
+        <v>819774</v>
       </c>
       <c r="E36" s="3">
-        <v>7.3</v>
+        <v>9.65</v>
       </c>
       <c r="F36" s="3">
-        <v>4.75</v>
+        <v>6.3</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H36" s="3">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I36" s="3">
-        <v>3.15</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J36" s="3">
-        <v>2.4500000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="K36" s="3">
-        <v>1.78</v>
+        <v>2.7</v>
       </c>
       <c r="L36" s="3">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="M36" s="3">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="N36" s="3">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O36" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="P36" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q36" s="3">
         <v>3.7</v>
-      </c>
-      <c r="P36" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>2.9</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>819726</v>
-      </c>
-      <c r="E37" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="F37" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="H37" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="I37" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J37" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="L37" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O37" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="P37" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>3.1</v>
+        <v>819617</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -2291,52 +2297,52 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>819604</v>
+        <v>819708</v>
       </c>
       <c r="E38" s="3">
-        <v>10.8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="3">
-        <v>6.75</v>
+        <v>4.37</v>
       </c>
       <c r="G38" s="3">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="H38" s="3">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="I38" s="3">
-        <v>4.6500000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="J38" s="3">
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K38" s="3">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L38" s="3">
-        <v>9.6999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="M38" s="3">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="N38" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="O38" s="3">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="P38" s="3">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" s="3">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -2345,54 +2351,52 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>819719</v>
+        <v>819717</v>
       </c>
       <c r="E39" s="3">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="F39" s="3">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="G39" s="3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="3">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="I39" s="3">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J39" s="3">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="K39" s="3">
-        <v>2.5499999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="L39" s="3">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="M39" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N39" s="3">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O39" s="3">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="P39" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -2401,52 +2405,52 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>819727</v>
+        <v>819725</v>
       </c>
       <c r="E40" s="3">
-        <v>10.6</v>
+        <v>7.55</v>
       </c>
       <c r="F40" s="3">
-        <v>6.4</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G40" s="3">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H40" s="3">
-        <v>5</v>
+        <v>4.08</v>
       </c>
       <c r="I40" s="3">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="J40" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L40" s="3">
+        <v>7.05</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="O40" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q40" s="3">
         <v>3.5</v>
-      </c>
-      <c r="K40" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="L40" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O40" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="P40" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>4.5</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2455,52 +2459,52 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>819710</v>
+        <v>819709</v>
       </c>
       <c r="E41" s="3">
-        <v>10.1</v>
+        <v>7.4</v>
       </c>
       <c r="F41" s="3">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="G41" s="3">
-        <v>3.47</v>
+        <v>2.95</v>
       </c>
       <c r="H41" s="3">
-        <v>5.0199999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="I41" s="3">
-        <v>4.45</v>
+        <v>3.2</v>
       </c>
       <c r="J41" s="3">
-        <v>3.55</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K41" s="3">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L41" s="3">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="M41" s="3">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="N41" s="3">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O41" s="3">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="P41" s="3">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q41" s="3">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2509,52 +2513,52 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>819720</v>
+        <v>819718</v>
       </c>
       <c r="E42" s="3">
-        <v>11.6</v>
+        <v>7.3</v>
       </c>
       <c r="F42" s="3">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
       <c r="G42" s="3">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="I42" s="3">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="J42" s="3">
-        <v>4</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K42" s="3">
-        <v>3.1</v>
+        <v>1.78</v>
       </c>
       <c r="L42" s="3">
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="M42" s="3">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="N42" s="3">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="O42" s="3">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="P42" s="3">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q42" s="3">
-        <v>5.15</v>
+        <v>2.9</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2563,172 +2567,408 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>819728</v>
+        <v>819726</v>
       </c>
       <c r="E43" s="3">
-        <v>11.2</v>
+        <v>7.5</v>
       </c>
       <c r="F43" s="3">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="G43" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="H43" s="3">
         <v>3.7</v>
       </c>
-      <c r="H43" s="3">
-        <v>5.7</v>
-      </c>
       <c r="I43" s="3">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="J43" s="3">
-        <v>4.05</v>
+        <v>2.39</v>
       </c>
       <c r="K43" s="3">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="L43" s="3">
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="M43" s="3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N43" s="3">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="O43" s="3">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="P43" s="3">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q43" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>819640</v>
+        <v>819604</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="L44" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O44" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P44" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>5</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>819637</v>
-      </c>
-      <c r="R45" s="3"/>
+        <v>819719</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L45" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O45" s="3">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>819658</v>
+        <v>819727</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L46" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O46" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="P46" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>4.5</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>819655</v>
+        <v>819710</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L47" s="3">
+        <v>9</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O47" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P47" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>4.5</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>819652</v>
+        <v>819720</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O48" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>5.15</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>819649</v>
+        <v>819728</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="L49" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O49" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>5.0999999999999996</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>819646</v>
+        <v>819640</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>819643</v>
+        <v>819637</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2737,121 +2977,43 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>819733</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5.26</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2.97</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3.3</v>
+        <v>819658</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>819734</v>
-      </c>
-      <c r="E53" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="F53" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="H53" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="I53" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="J53" s="3">
-        <v>3.03</v>
-      </c>
-      <c r="K53" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="L53" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N53" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O53" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="P53" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>3.15</v>
+        <v>819655</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>819608</v>
+        <v>819652</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2860,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>819630</v>
+        <v>819649</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2875,28 +3037,28 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>819633</v>
+        <v>819646</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>819693</v>
+        <v>819643</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2905,43 +3067,121 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>819612</v>
+        <v>819733</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O58" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>3.3</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>819615</v>
+        <v>819734</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="K59" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="L59" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O59" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P59" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>3.15</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>819618</v>
+        <v>819608</v>
       </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2950,13 +3190,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>819621</v>
+        <v>819630</v>
       </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2965,28 +3205,28 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>819624</v>
+        <v>819633</v>
       </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>819627</v>
+        <v>819693</v>
       </c>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2995,103 +3235,103 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>819687</v>
+        <v>819612</v>
       </c>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>819690</v>
+        <v>819615</v>
       </c>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>819610</v>
+        <v>819618</v>
       </c>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>819607</v>
+        <v>819621</v>
       </c>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>819603</v>
+        <v>819624</v>
       </c>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>819606</v>
+        <v>819627</v>
       </c>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>819609</v>
+        <v>819687</v>
       </c>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -3100,160 +3340,43 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>819749</v>
-      </c>
-      <c r="E71" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F71" s="3">
-        <v>5.05</v>
-      </c>
-      <c r="G71" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H71" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I71" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="J71" s="3">
-        <v>2.85</v>
-      </c>
-      <c r="K71" s="3">
-        <v>2</v>
-      </c>
-      <c r="L71" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N71" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O71" s="3">
-        <v>4</v>
-      </c>
-      <c r="P71" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>3.4</v>
+        <v>819690</v>
       </c>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>819759</v>
-      </c>
-      <c r="E72" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5.05</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J72" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="K72" s="3">
-        <v>2</v>
-      </c>
-      <c r="L72" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O72" s="3">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3.3</v>
+        <v>819610</v>
       </c>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>819769</v>
-      </c>
-      <c r="E73" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F73" s="3">
-        <v>5.35</v>
-      </c>
-      <c r="G73" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H73" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="J73" s="3">
-        <v>3</v>
-      </c>
-      <c r="K73" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L73" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N73" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O73" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="P73" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>3.55</v>
+        <v>819607</v>
       </c>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3262,52 +3385,13 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>819750</v>
-      </c>
-      <c r="E74" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>5.65</v>
-      </c>
-      <c r="G74" s="3">
-        <v>4</v>
-      </c>
-      <c r="H74" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I74" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J74" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="K74" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L74" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="M74" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N74" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O74" s="3">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="P74" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>3.25</v>
+        <v>819603</v>
       </c>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3316,52 +3400,13 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>819760</v>
-      </c>
-      <c r="E75" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G75" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="H75" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="I75" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="K75" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="L75" s="3">
-        <v>5.85</v>
-      </c>
-      <c r="M75" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N75" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O75" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="P75" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>3.3</v>
+        <v>819606</v>
       </c>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3370,52 +3415,13 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <v>819770</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2</v>
-      </c>
-      <c r="L76" s="3">
-        <v>5.85</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3</v>
+        <v>819609</v>
       </c>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -3424,99 +3430,97 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>819735</v>
+        <v>819749</v>
       </c>
       <c r="E77" s="3">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F77" s="3">
-        <v>5.8</v>
+        <v>5.05</v>
       </c>
       <c r="G77" s="3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H77" s="3">
-        <v>4.8499999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I77" s="3">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J77" s="3">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="K77" s="3">
+        <v>2</v>
+      </c>
+      <c r="L77" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N77" s="3">
         <v>1.9</v>
       </c>
-      <c r="L77" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="M77" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="N77" s="3">
-        <v>2.0499999999999998</v>
-      </c>
       <c r="O77" s="3">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P77" s="3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Q77" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="R77" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>819736</v>
+        <v>819759</v>
       </c>
       <c r="E78" s="3">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="F78" s="3">
-        <v>6</v>
+        <v>5.05</v>
       </c>
       <c r="G78" s="3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H78" s="3">
-        <v>4.75</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I78" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J78" s="3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K78" s="3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L78" s="3">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="M78" s="3">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N78" s="3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O78" s="3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P78" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q78" s="3">
         <v>3.3</v>
@@ -3525,187 +3529,333 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>819751</v>
+        <v>819769</v>
       </c>
       <c r="E79" s="3">
-        <v>8.65</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F79" s="3">
-        <v>5.7</v>
+        <v>5.35</v>
       </c>
       <c r="G79" s="3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H79" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I79" s="3">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J79" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K79" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L79" s="3">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="M79" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N79" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="O79" s="3">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="P79" s="3">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q79" s="3">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>819761</v>
+        <v>819750</v>
       </c>
       <c r="E80" s="3">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="F80" s="3">
-        <v>5.4</v>
+        <v>5.65</v>
       </c>
       <c r="G80" s="3">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H80" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I80" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J80" s="3">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K80" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="L80" s="3">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="M80" s="3">
         <v>0.8</v>
       </c>
       <c r="N80" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="O80" s="3">
-        <v>4.2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="P80" s="3">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="Q80" s="3">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>819771</v>
+        <v>819760</v>
       </c>
       <c r="E81" s="3">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="F81" s="3">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G81" s="3">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H81" s="3">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="I81" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="J81" s="3">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="K81" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="L81" s="3">
-        <v>7.55</v>
+        <v>5.85</v>
       </c>
       <c r="M81" s="3">
         <v>0.8</v>
       </c>
       <c r="N81" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O81" s="3">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="P81" s="3">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q81" s="3">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>819770</v>
+      </c>
+      <c r="E82" s="3">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H82" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="K82" s="3">
+        <v>2</v>
+      </c>
+      <c r="L82" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N82" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="O82" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P82" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>3</v>
       </c>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="R83" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>819735</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L83" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O83" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P83" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>819736</v>
+      </c>
+      <c r="E84" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F84" s="3">
+        <v>6</v>
+      </c>
+      <c r="G84" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H84" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I84" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J84" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L84" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N84" s="3">
+        <v>2</v>
+      </c>
+      <c r="O84" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P84" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>3.3</v>
       </c>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -3714,13 +3864,52 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>819682</v>
+        <v>819751</v>
+      </c>
+      <c r="E85" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="F85" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H85" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I85" s="3">
+        <v>5</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L85" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N85" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O85" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P85" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>4.3</v>
       </c>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3729,13 +3918,52 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>819679</v>
+        <v>819761</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G86" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="I86" s="3">
+        <v>4</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K86" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L86" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O86" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="P86" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>3.5</v>
       </c>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3744,13 +3972,52 @@
         <v>3</v>
       </c>
       <c r="D87">
-        <v>819676</v>
+        <v>819771</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G87" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H87" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="I87" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J87" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K87" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L87" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N87" s="3">
+        <v>2</v>
+      </c>
+      <c r="O87" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="P87" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>3.6</v>
       </c>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3759,13 +4026,52 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>819673</v>
+        <v>819752</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G88" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H88" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I88" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="K88" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N88" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O88" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P88" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>3.1</v>
       </c>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3774,13 +4080,52 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>819670</v>
+        <v>819762</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L89" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="O89" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="P89" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>3.2</v>
       </c>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3789,13 +4134,52 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>819667</v>
+        <v>819772</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G90" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H90" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I90" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J90" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="K90" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L90" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O90" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P90" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>2.9</v>
       </c>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -3804,52 +4188,13 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>819737</v>
-      </c>
-      <c r="E91" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H91" s="3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="I91" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="J91" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="K91" s="3">
-        <v>2.65</v>
-      </c>
-      <c r="L91" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N91" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O91" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="P91" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>4.5</v>
+        <v>819682</v>
       </c>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -3858,52 +4203,13 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>819741</v>
-      </c>
-      <c r="E92" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F92" s="3">
-        <v>5.45</v>
-      </c>
-      <c r="G92" s="3">
-        <v>3.35</v>
-      </c>
-      <c r="H92" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I92" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J92" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K92" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="L92" s="3">
-        <v>8</v>
-      </c>
-      <c r="M92" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N92" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="O92" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P92" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>4</v>
+        <v>819679</v>
       </c>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -3912,52 +4218,13 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>819745</v>
-      </c>
-      <c r="E93" s="3">
-        <v>9.35</v>
-      </c>
-      <c r="F93" s="3">
-        <v>5.95</v>
-      </c>
-      <c r="G93" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H93" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I93" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="J93" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="K93" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="L93" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="M93" s="3">
-        <v>1</v>
-      </c>
-      <c r="N93" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O93" s="3">
-        <v>5</v>
-      </c>
-      <c r="P93" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>4.45</v>
+        <v>819676</v>
       </c>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3966,52 +4233,13 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>819738</v>
-      </c>
-      <c r="E94" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="F94" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="G94" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="H94" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="I94" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="J94" s="3">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K94" s="3">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="M94" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N94" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O94" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P94" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>4.4000000000000004</v>
+        <v>819673</v>
       </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -4020,52 +4248,13 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>819742</v>
-      </c>
-      <c r="E95" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="G95" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H95" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="I95" s="3">
-        <v>6</v>
-      </c>
-      <c r="J95" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K95" s="3">
-        <v>3</v>
-      </c>
-      <c r="L95" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M95" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N95" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O95" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P95" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>4.3</v>
+        <v>819670</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -4074,52 +4263,13 @@
         <v>3</v>
       </c>
       <c r="D96">
-        <v>819746</v>
-      </c>
-      <c r="E96" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F96" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="G96" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H96" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I96" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K96" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="L96" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="N96" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="O96" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="P96" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>3.5</v>
+        <v>819667</v>
       </c>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -4128,54 +4278,52 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>819729</v>
+        <v>819737</v>
       </c>
       <c r="E97" s="3">
-        <v>7.65</v>
+        <v>9.1</v>
       </c>
       <c r="F97" s="3">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="G97" s="3">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H97" s="3">
-        <v>3.9</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I97" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J97" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="L97" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N97" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O97" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P97" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="Q97" s="3">
         <v>4.5</v>
       </c>
-      <c r="J97" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K97" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L97" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="M97" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N97" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="O97" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="P97" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="R97" s="3"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -4184,52 +4332,52 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>819739</v>
+        <v>819741</v>
       </c>
       <c r="E98" s="3">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F98" s="3">
-        <v>5.3</v>
+        <v>5.45</v>
       </c>
       <c r="G98" s="3">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H98" s="3">
         <v>4.5</v>
       </c>
       <c r="I98" s="3">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J98" s="3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K98" s="3">
-        <v>3</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L98" s="3">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="M98" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="N98" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="O98" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P98" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q98" s="3">
         <v>4</v>
-      </c>
-      <c r="P98" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>3.1</v>
       </c>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -4238,52 +4386,52 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>819743</v>
+        <v>819745</v>
       </c>
       <c r="E99" s="3">
-        <v>8.1</v>
+        <v>9.35</v>
       </c>
       <c r="F99" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="G99" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H99" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I99" s="3">
         <v>5.4</v>
       </c>
-      <c r="G99" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H99" s="3">
+      <c r="J99" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="K99" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="L99" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M99" s="3">
+        <v>1</v>
+      </c>
+      <c r="N99" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O99" s="3">
+        <v>5</v>
+      </c>
+      <c r="P99" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="Q99" s="3">
         <v>4.45</v>
-      </c>
-      <c r="I99" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="J99" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="K99" s="3">
-        <v>3.05</v>
-      </c>
-      <c r="L99" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="M99" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="N99" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="O99" s="3">
-        <v>4</v>
-      </c>
-      <c r="P99" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>3.1</v>
       </c>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -4292,52 +4440,52 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>819730</v>
+        <v>819738</v>
       </c>
       <c r="E100" s="3">
-        <v>8.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="F100" s="3">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="G100" s="3">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="H100" s="3">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="I100" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N100" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O100" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P100" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J100" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="L100" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="O100" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="P100" s="3">
-        <v>3.6</v>
-      </c>
       <c r="Q100" s="3">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -4346,52 +4494,52 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>819740</v>
+        <v>819742</v>
       </c>
       <c r="E101" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K101" s="3">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F101" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G101" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H101" s="3">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I101" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="J101" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="L101" s="3">
-        <v>6.3</v>
-      </c>
       <c r="M101" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="N101" s="3">
-        <v>1.85</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O101" s="3">
-        <v>3.85</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P101" s="3">
-        <v>3.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q101" s="3">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -4400,52 +4548,52 @@
         <v>3</v>
       </c>
       <c r="D102">
-        <v>819744</v>
+        <v>819746</v>
       </c>
       <c r="E102" s="3">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F102" s="3">
-        <v>4.92</v>
+        <v>5.7</v>
       </c>
       <c r="G102" s="3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H102" s="3">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I102" s="3">
-        <v>4.6500000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="J102" s="3">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K102" s="3">
         <v>2.6</v>
       </c>
       <c r="L102" s="3">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="M102" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="N102" s="3">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O102" s="3">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="P102" s="3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q102" s="3">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -4454,430 +4602,432 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>819731</v>
+        <v>819729</v>
       </c>
       <c r="E103" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="F103" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I103" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J103" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K103" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L103" s="3">
         <v>5.8</v>
       </c>
-      <c r="F103" s="3">
-        <v>3.35</v>
-      </c>
-      <c r="G103" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H103" s="3">
-        <v>3</v>
-      </c>
-      <c r="I103" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J103" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="K103" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="L103" s="3">
-        <v>4</v>
-      </c>
       <c r="M103" s="3">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N103" s="3">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="O103" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="P103" s="3">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q103" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="R103" s="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>819732</v>
+        <v>819739</v>
       </c>
       <c r="E104" s="3">
-        <v>6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F104" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G104" s="3">
         <v>3.8</v>
       </c>
-      <c r="G104" s="3">
-        <v>2.42</v>
-      </c>
       <c r="H104" s="3">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I104" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J104" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K104" s="3">
+        <v>3</v>
+      </c>
+      <c r="L104" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O104" s="3">
+        <v>4</v>
+      </c>
+      <c r="P104" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="Q104" s="3">
         <v>3.1</v>
-      </c>
-      <c r="J104" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="K104" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="L104" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M104" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="N104" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="O104" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="P104" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q104" s="3">
-        <v>1.8</v>
       </c>
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>819747</v>
+        <v>819743</v>
       </c>
       <c r="E105" s="3">
-        <v>7.45</v>
+        <v>8.1</v>
       </c>
       <c r="F105" s="3">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="G105" s="3">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="H105" s="3">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
       <c r="I105" s="3">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="J105" s="3">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="K105" s="3">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="L105" s="3">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="M105" s="3">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="N105" s="3">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O105" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P105" s="3">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="Q105" s="3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>819757</v>
+        <v>819730</v>
       </c>
       <c r="E106" s="3">
-        <v>6.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F106" s="3">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="G106" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H106" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I106" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J106" s="3">
         <v>3.4</v>
       </c>
-      <c r="I106" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="J106" s="3">
-        <v>2.35</v>
-      </c>
       <c r="K106" s="3">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L106" s="3">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M106" s="3">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="N106" s="3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O106" s="3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P106" s="3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q106" s="3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>819767</v>
+        <v>819740</v>
       </c>
       <c r="E107" s="3">
-        <v>7.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F107" s="3">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G107" s="3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H107" s="3">
-        <v>3.5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I107" s="3">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="J107" s="3">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="K107" s="3">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L107" s="3">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="M107" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N107" s="3">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O107" s="3">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="P107" s="3">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Q107" s="3">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>819748</v>
+        <v>819744</v>
       </c>
       <c r="E108" s="3">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="F108" s="3">
-        <v>4.7</v>
+        <v>4.92</v>
       </c>
       <c r="G108" s="3">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H108" s="3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I108" s="3">
-        <v>3.4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J108" s="3">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="K108" s="3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L108" s="3">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M108" s="3">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N108" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O108" s="3">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="P108" s="3">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q108" s="3">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>819758</v>
+        <v>819731</v>
       </c>
       <c r="E109" s="3">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="F109" s="3">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="G109" s="3">
-        <v>3.25</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H109" s="3">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I109" s="3">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J109" s="3">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K109" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="L109" s="3">
+        <v>4</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="N109" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="O109" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P109" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Q109" s="3">
         <v>1.9</v>
-      </c>
-      <c r="L109" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M109" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N109" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="O109" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P109" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>3</v>
       </c>
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>819768</v>
+        <v>819732</v>
       </c>
       <c r="E110" s="3">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="F110" s="3">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="G110" s="3">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="H110" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I110" s="3">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J110" s="3">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K110" s="3">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L110" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M110" s="3">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="N110" s="3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O110" s="3">
-        <v>3.2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P110" s="3">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q110" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="R110" s="3"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -4886,269 +5036,661 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>819660</v>
+        <v>819755</v>
+      </c>
+      <c r="E111" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="F111" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H111" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I111" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="J111" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="K111" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L111" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O111" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P111" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>3.1</v>
       </c>
       <c r="R111" s="3"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>819663</v>
+        <v>819765</v>
+      </c>
+      <c r="E112" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F112" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="G112" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H112" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="I112" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="K112" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L112" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O112" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P112" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>3.2</v>
       </c>
       <c r="R112" s="3"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>819672</v>
+        <v>819775</v>
+      </c>
+      <c r="E113" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="F113" s="3">
+        <v>5</v>
+      </c>
+      <c r="G113" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H113" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I113" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="J113" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="K113" s="3">
+        <v>2</v>
+      </c>
+      <c r="L113" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N113" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="O113" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P113" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>3</v>
       </c>
       <c r="R113" s="3"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>819675</v>
+        <v>819756</v>
+      </c>
+      <c r="E114" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F114" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G114" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H114" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I114" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J114" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K114" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L114" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N114" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O114" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P114" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>3.1</v>
       </c>
       <c r="R114" s="3"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>819678</v>
+        <v>819766</v>
+      </c>
+      <c r="E115" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F115" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H115" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I115" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="J115" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K115" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L115" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="N115" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O115" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P115" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>3.1</v>
       </c>
       <c r="R115" s="3"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>819681</v>
+        <v>819776</v>
+      </c>
+      <c r="E116" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F116" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G116" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H116" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I116" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J116" s="3">
+        <v>3</v>
+      </c>
+      <c r="K116" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L116" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N116" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O116" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P116" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>2.8</v>
       </c>
       <c r="R116" s="3"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>819684</v>
+        <v>819747</v>
+      </c>
+      <c r="E117" s="3">
+        <v>7.45</v>
+      </c>
+      <c r="F117" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G117" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H117" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I117" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J117" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L117" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N117" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O117" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P117" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>2.7</v>
       </c>
       <c r="R117" s="3"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>819666</v>
+        <v>819757</v>
+      </c>
+      <c r="E118" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="F118" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3</v>
+      </c>
+      <c r="H118" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K118" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="L118" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N118" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="O118" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="P118" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>2.7</v>
       </c>
       <c r="R118" s="3"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>819669</v>
+        <v>819767</v>
+      </c>
+      <c r="E119" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F119" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G119" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H119" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I119" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="J119" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K119" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L119" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N119" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O119" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P119" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>3</v>
       </c>
       <c r="R119" s="3"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>819654</v>
+        <v>819748</v>
+      </c>
+      <c r="E120" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="F120" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H120" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I120" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="J120" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K120" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L120" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N120" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O120" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="P120" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>2.65</v>
       </c>
       <c r="R120" s="3"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>819657</v>
+        <v>819758</v>
+      </c>
+      <c r="E121" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F121" s="3">
+        <v>5</v>
+      </c>
+      <c r="G121" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H121" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="I121" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J121" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L121" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M121" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N121" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="O121" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P121" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>3</v>
       </c>
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>819702</v>
+        <v>819768</v>
       </c>
       <c r="E122" s="3">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F122" s="3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="G122" s="3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H122" s="3">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I122" s="3">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="J122" s="3">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K122" s="3">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="L122" s="3">
-        <v>7.34</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M122" s="3">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="N122" s="3">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="O122" s="3">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="P122" s="3">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q122" s="3">
-        <v>2.75</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R122" s="3"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>819711</v>
-      </c>
-      <c r="E123" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F123" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G123" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H123" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="I123" s="3">
-        <v>2.86</v>
-      </c>
-      <c r="J123" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="K123" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="L123" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="M123" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N123" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="O123" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="P123" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>2.5499999999999998</v>
-      </c>
+        <v>819660</v>
+      </c>
+      <c r="R123" s="3"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -5157,277 +5699,533 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>819703</v>
-      </c>
-      <c r="E124" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="F124" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G124" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="H124" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="I124" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J124" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="K124" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L124" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="M124" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N124" s="3">
-        <v>1</v>
-      </c>
-      <c r="O124" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="P124" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q124" s="3">
-        <v>2.6</v>
-      </c>
+        <v>819663</v>
+      </c>
+      <c r="R124" s="3"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>819712</v>
-      </c>
-      <c r="E125" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="F125" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G125" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="H125" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="I125" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="J125" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K125" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L125" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="M125" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N125" s="3">
-        <v>1</v>
-      </c>
-      <c r="O125" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="P125" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q125" s="3">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>819672</v>
+      </c>
+      <c r="R125" s="3"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>819721</v>
-      </c>
-      <c r="E126" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="F126" s="3">
-        <v>5</v>
-      </c>
-      <c r="G126" s="3">
-        <v>2.85</v>
-      </c>
-      <c r="H126" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="I126" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J126" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K126" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="L126" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="M126" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="N126" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="O126" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="P126" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="Q126" s="3">
-        <v>2.6</v>
-      </c>
+        <v>819675</v>
+      </c>
+      <c r="R126" s="3"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>819700</v>
-      </c>
+        <v>819678</v>
+      </c>
+      <c r="R127" s="3"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>819681</v>
+      </c>
+      <c r="R128" s="3"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>819684</v>
+      </c>
+      <c r="R129" s="3"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>819666</v>
+      </c>
+      <c r="R130" s="3"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>74</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>819669</v>
+      </c>
+      <c r="R131" s="3"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>819654</v>
+      </c>
+      <c r="R132" s="3"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>819657</v>
+      </c>
+      <c r="R133" s="3"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>819702</v>
+      </c>
+      <c r="E134" s="3">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3">
+        <v>5</v>
+      </c>
+      <c r="G134" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H134" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="I134" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K134" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L134" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N134" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O134" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P134" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>819711</v>
+      </c>
+      <c r="E135" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F135" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G135" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H135" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I135" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="K135" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L135" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N135" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="O135" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P135" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>819703</v>
+      </c>
+      <c r="E136" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="F136" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G136" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H136" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I136" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="K136" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L136" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M136" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N136" s="3">
+        <v>1</v>
+      </c>
+      <c r="O136" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P136" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>819712</v>
+      </c>
+      <c r="E137" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F137" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G137" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="H137" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I137" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J137" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L137" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="M137" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N137" s="3">
+        <v>1</v>
+      </c>
+      <c r="O137" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="P137" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>819721</v>
+      </c>
+      <c r="E138" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>5</v>
+      </c>
+      <c r="G138" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="H138" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I138" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J138" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="L138" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N138" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="O138" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="P138" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>61</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-      <c r="D128">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>819700</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
         <v>819697</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>61</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
         <v>819694</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>61</v>
       </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
         <v>819691</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>61</v>
       </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131">
-        <v>2</v>
-      </c>
-      <c r="D131">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
         <v>819688</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>61</v>
       </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
         <v>819685</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>79</v>
       </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
         <v>819696</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>63</v>
       </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
         <v>819664</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>63</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-      <c r="D135">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
         <v>819661</v>
       </c>
     </row>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2017" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836EC77A-BD4E-4B4C-9E9B-96C39FC4C4B8}"/>
+  <xr:revisionPtr revIDLastSave="2196" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25F20D0D-00F1-43C0-9152-265761F1C676}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="94">
   <si>
     <t>Unit</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Pterostichus_stygicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -998,9 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4190,6 +4193,45 @@
       <c r="D91">
         <v>819682</v>
       </c>
+      <c r="E91" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I91" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="J91" s="3">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L91" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O91" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="P91" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>3.6</v>
+      </c>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
@@ -4205,6 +4247,45 @@
       <c r="D92">
         <v>819679</v>
       </c>
+      <c r="E92" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G92" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H92" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I92" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L92" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="O92" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P92" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>3.6</v>
+      </c>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
@@ -4220,6 +4301,45 @@
       <c r="D93">
         <v>819676</v>
       </c>
+      <c r="E93" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H93" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I93" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J93" s="3">
+        <v>3</v>
+      </c>
+      <c r="K93" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="L93" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N93" s="3">
+        <v>2</v>
+      </c>
+      <c r="O93" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P93" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>3.9</v>
+      </c>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
@@ -4235,6 +4355,45 @@
       <c r="D94">
         <v>819673</v>
       </c>
+      <c r="E94" s="3">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3">
+        <v>6.15</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="I94" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N94" s="3">
+        <v>2</v>
+      </c>
+      <c r="O94" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P94" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>3.4</v>
+      </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
@@ -4250,6 +4409,45 @@
       <c r="D95">
         <v>819670</v>
       </c>
+      <c r="E95" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F95" s="3">
+        <v>6</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H95" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="I95" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L95" s="3">
+        <v>7</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="O95" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P95" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>3.6</v>
+      </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
@@ -4265,6 +4463,45 @@
       <c r="D96">
         <v>819667</v>
       </c>
+      <c r="E96" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="F96" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I96" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="J96" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L96" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N96" s="3">
+        <v>2</v>
+      </c>
+      <c r="O96" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P96" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>3.5</v>
+      </c>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
@@ -6116,6 +6353,45 @@
       <c r="D139">
         <v>819700</v>
       </c>
+      <c r="E139" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="F139" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="G139" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="H139" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I139" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="J139" s="3">
+        <v>2</v>
+      </c>
+      <c r="K139" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="L139" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N139" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O139" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P139" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
@@ -6130,6 +6406,45 @@
       <c r="D140">
         <v>819697</v>
       </c>
+      <c r="E140" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="F140" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G140" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H140" s="3">
+        <v>4</v>
+      </c>
+      <c r="I140" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="J140" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="K140" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L140" s="3">
+        <v>7.45</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N140" s="3">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P140" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
@@ -6144,6 +6459,45 @@
       <c r="D141">
         <v>819694</v>
       </c>
+      <c r="E141" s="3">
+        <v>8</v>
+      </c>
+      <c r="F141" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G141" s="3">
+        <v>3</v>
+      </c>
+      <c r="H141" s="3">
+        <v>4</v>
+      </c>
+      <c r="I141" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J141" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="K141" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="L141" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N141" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="O141" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P141" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
@@ -6158,6 +6512,45 @@
       <c r="D142">
         <v>819691</v>
       </c>
+      <c r="E142" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F142" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G142" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H142" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I142" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J142" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L142" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N142" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="O142" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="P142" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
@@ -6172,6 +6565,45 @@
       <c r="D143">
         <v>819688</v>
       </c>
+      <c r="E143" s="3">
+        <v>7.95</v>
+      </c>
+      <c r="F143" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G143" s="3">
+        <v>3</v>
+      </c>
+      <c r="H143" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I143" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="J143" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L143" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N143" s="3">
+        <v>1</v>
+      </c>
+      <c r="O143" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P143" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -6186,8 +6618,47 @@
       <c r="D144">
         <v>819685</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F144" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G144" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H144" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I144" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L144" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="M144" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N144" s="3">
+        <v>1</v>
+      </c>
+      <c r="O144" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="P144" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>79</v>
       </c>
@@ -6201,7 +6672,7 @@
         <v>819696</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>63</v>
       </c>
@@ -6214,8 +6685,11 @@
       <c r="D146">
         <v>819664</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>63</v>
       </c>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2196" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25F20D0D-00F1-43C0-9152-265761F1C676}"/>
+  <xr:revisionPtr revIDLastSave="2476" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A53D0BD-B823-422E-8105-79EE39EE5710}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10550" yWindow="30" windowWidth="8480" windowHeight="10020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="116">
   <si>
     <t>Unit</t>
   </si>
@@ -51,27 +51,12 @@
     <t>f</t>
   </si>
   <si>
-    <t>Wind development</t>
-  </si>
-  <si>
-    <t>Present, absent, or reduced</t>
-  </si>
-  <si>
-    <t>Wings will be marked as reduced if they do not extend further than 1/2 the length of elytra</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>Length of the bean-shaped rear trochanter</t>
   </si>
   <si>
-    <t>Overall trait</t>
-  </si>
-  <si>
-    <t>Subtraits</t>
-  </si>
-  <si>
     <t>Body_length</t>
   </si>
   <si>
@@ -318,14 +303,95 @@
     <t>Pterostichus_stygicus</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>Literature based traits</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Measured components</t>
+  </si>
+  <si>
+    <t>brachypterous</t>
+  </si>
+  <si>
+    <t>Another source used: Bousquet, Yves, and Peter Messer. “Redescription of Stenolophus Thoracicus Casey (Coleoptera, Carabidae, Harpalini), a Valid Species.” ZooKeys 53 (August 27, 2010): 25–31. https://doi.org/10.3897/zookeys.53.470.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>macropterous</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>LOOK AT SPECIMEN</t>
+  </si>
+  <si>
+    <t>LIKELY FOREST</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>dimorphic</t>
+  </si>
+  <si>
+    <t>BOTH BUT NEED TO VERIFY ID</t>
+  </si>
+  <si>
+    <t>MACROPTEROUS BUT VERIFY WITH SPECIMENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macropterous, brachypterous, or dimorphic/polymorphic. Taken from Larochelle and Lariviere (2003) rather than from the specimens. </t>
+  </si>
+  <si>
+    <t>1..3</t>
+  </si>
+  <si>
+    <t>Larochelle and Lariviere say it is submacropterous and likely incapable of flight</t>
+  </si>
+  <si>
+    <t>Hygrophily</t>
+  </si>
+  <si>
+    <t>Does the species prefer high soil moisture, or drier soils? Three options: hygrophilous, intermediate, or xerophilous</t>
+  </si>
+  <si>
+    <t>Forest_affinity</t>
+  </si>
+  <si>
+    <t>xerophilous</t>
+  </si>
+  <si>
+    <t>Three options: forest, open, or both. Mark forest if Larochelle and Lariviere (2003) only mention forested areas and/or shaded ground as a habitat. Mark open if they only mention clearings, edges, pastures, or fields, and/or if they mention unshaded ground or open habitat. Mark both if both habitat affinities are mentioned, such as "forest clearings" or "shaded or open ground"</t>
+  </si>
+  <si>
+    <t>hygrophilous</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>Some subspecies are listed as moderately moist soil while others are listed as moist soil</t>
+  </si>
+  <si>
+    <t>One subspecies is listed as moist soil while the other moderately moist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +407,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,13 +440,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,8 +478,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -415,7 +495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="355600" y="88900"/>
-          <a:ext cx="4641850" cy="1079500"/>
+          <a:ext cx="9531350" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,243 +832,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="4" max="4" width="76.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -999,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U141" sqref="U141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,68 +1129,79 @@
     <col min="15" max="15" width="17" style="3" customWidth="1"/>
     <col min="16" max="16" width="15.81640625" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="87.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.81640625" customWidth="1"/>
+    <col min="19" max="20" width="26.08984375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="28.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1097,11 +1212,58 @@
       <c r="D2">
         <v>819611</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1112,11 +1274,56 @@
       <c r="D3">
         <v>819619</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E3" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1127,11 +1334,56 @@
       <c r="D4">
         <v>819616</v>
       </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E4" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1142,11 +1394,56 @@
       <c r="D5">
         <v>819613</v>
       </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1157,14 +1454,59 @@
       <c r="D6">
         <v>819605</v>
       </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E6" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1172,14 +1514,59 @@
       <c r="D7">
         <v>819614</v>
       </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E7" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1187,14 +1574,59 @@
       <c r="D8">
         <v>819699</v>
       </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E8" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1202,14 +1634,59 @@
       <c r="D9">
         <v>819634</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E9" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1217,14 +1694,59 @@
       <c r="D10">
         <v>819631</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E10" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1232,11 +1754,56 @@
       <c r="D11">
         <v>819628</v>
       </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E11" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1247,11 +1814,56 @@
       <c r="D12">
         <v>819625</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E12" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1262,14 +1874,59 @@
       <c r="D13">
         <v>819622</v>
       </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E13" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1317,15 +1974,21 @@
         <v>2</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1373,10 +2036,16 @@
         <v>2</v>
       </c>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1427,10 +2096,16 @@
         <v>1.95</v>
       </c>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1481,10 +2156,16 @@
         <v>2</v>
       </c>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1535,13 +2216,19 @@
         <v>2</v>
       </c>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1549,14 +2236,59 @@
       <c r="D19">
         <v>819636</v>
       </c>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E19" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="L19" s="4">
+        <v>12</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="P19" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1564,14 +2296,59 @@
       <c r="D20">
         <v>819639</v>
       </c>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E20" s="4">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L20" s="4">
+        <v>13</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O20" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="P20" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>7</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1579,11 +2356,56 @@
       <c r="D21">
         <v>819642</v>
       </c>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E21" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L21" s="4">
+        <v>11</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P21" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>6</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1594,11 +2416,56 @@
       <c r="D22">
         <v>819645</v>
       </c>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E22" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L22" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P22" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1609,11 +2476,56 @@
       <c r="D23">
         <v>819648</v>
       </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E23" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>12</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>6</v>
+      </c>
+      <c r="P23" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>7</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1624,14 +2536,59 @@
       <c r="D24">
         <v>819651</v>
       </c>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E24" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L24" s="4">
+        <v>12</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>6</v>
+      </c>
+      <c r="P24" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1679,13 +2636,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1733,13 +2696,19 @@
         <v>3.95</v>
       </c>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1787,10 +2756,16 @@
         <v>4.8</v>
       </c>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1841,10 +2816,16 @@
         <v>4.5</v>
       </c>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1895,10 +2876,16 @@
         <v>4.3</v>
       </c>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1949,13 +2936,19 @@
         <v>3.7</v>
       </c>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2003,13 +2996,19 @@
         <v>3.9</v>
       </c>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2057,13 +3056,19 @@
         <v>3.8</v>
       </c>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2111,10 +3116,16 @@
         <v>3.9</v>
       </c>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2165,10 +3176,16 @@
         <v>3.6</v>
       </c>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2219,10 +3236,16 @@
         <v>3.4</v>
       </c>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2273,13 +3296,19 @@
         <v>3.7</v>
       </c>
       <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2287,14 +3316,59 @@
       <c r="D37">
         <v>819617</v>
       </c>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E37" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O37" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="P37" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>2</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2342,13 +3416,19 @@
         <v>3.1</v>
       </c>
       <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2396,13 +3476,19 @@
         <v>3.2</v>
       </c>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2450,10 +3536,16 @@
         <v>3.5</v>
       </c>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2504,10 +3596,16 @@
         <v>2.9</v>
       </c>
       <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2558,10 +3656,16 @@
         <v>2.9</v>
       </c>
       <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2612,13 +3716,19 @@
         <v>3.1</v>
       </c>
       <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2666,13 +3776,19 @@
         <v>5</v>
       </c>
       <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2717,18 +3833,24 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2776,10 +3898,16 @@
         <v>4.5</v>
       </c>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2830,10 +3958,16 @@
         <v>4.5</v>
       </c>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2884,10 +4018,16 @@
         <v>5.15</v>
       </c>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2938,10 +4078,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2952,11 +4098,56 @@
       <c r="D50">
         <v>819640</v>
       </c>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E50" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F50" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I50" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="J50" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L50" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O50" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="P50" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2967,14 +4158,59 @@
       <c r="D51">
         <v>819637</v>
       </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E51" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="G51" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I51" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L51" s="4">
+        <v>12</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="O51" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P51" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2982,14 +4218,59 @@
       <c r="D52">
         <v>819658</v>
       </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F52" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H52" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J52" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2</v>
+      </c>
+      <c r="L52" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O52" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P52" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2997,14 +4278,59 @@
       <c r="D53">
         <v>819655</v>
       </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J53" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L53" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O53" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P53" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3012,11 +4338,56 @@
       <c r="D54">
         <v>819652</v>
       </c>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E54" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H54" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="J54" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L54" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O54" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -3027,11 +4398,56 @@
       <c r="D55">
         <v>819649</v>
       </c>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E55" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H55" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L55" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O55" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P55" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R55" s="4"/>
+      <c r="S55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -3042,11 +4458,56 @@
       <c r="D56">
         <v>819646</v>
       </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E56" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G56" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J56" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2</v>
+      </c>
+      <c r="L56" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O56" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -3057,14 +4518,59 @@
       <c r="D57">
         <v>819643</v>
       </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E57" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H57" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I57" s="4">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2</v>
+      </c>
+      <c r="L57" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O57" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P57" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="R57" s="4"/>
+      <c r="S57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3112,10 +4618,16 @@
         <v>3.3</v>
       </c>
       <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -3166,13 +4678,19 @@
         <v>3.15</v>
       </c>
       <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3180,11 +4698,56 @@
       <c r="D60">
         <v>819608</v>
       </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E60" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>1</v>
+      </c>
+      <c r="R60" s="4"/>
+      <c r="S60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -3195,11 +4758,56 @@
       <c r="D61">
         <v>819630</v>
       </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E61" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F61" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L61" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O61" s="4">
+        <v>2</v>
+      </c>
+      <c r="P61" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R61" s="4"/>
+      <c r="S61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -3210,11 +4818,56 @@
       <c r="D62">
         <v>819633</v>
       </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E62" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L62" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1</v>
+      </c>
+      <c r="O62" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R62" s="4"/>
+      <c r="S62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -3225,14 +4878,59 @@
       <c r="D63">
         <v>819693</v>
       </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E63" s="4">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4">
+        <v>5</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H63" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I63" s="4">
+        <v>3</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L63" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O63" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="P63" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>3</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3240,14 +4938,59 @@
       <c r="D64">
         <v>819612</v>
       </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E64" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="F64" s="4">
+        <v>5</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I64" s="4">
+        <v>4</v>
+      </c>
+      <c r="J64" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L64" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O64" s="4">
+        <v>5</v>
+      </c>
+      <c r="P64" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R64" s="4"/>
+      <c r="S64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -3255,14 +4998,59 @@
       <c r="D65">
         <v>819615</v>
       </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E65" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="G65" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J65" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L65" s="4">
+        <v>10</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O65" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P65" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R65" s="4"/>
+      <c r="S65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -3270,11 +5058,56 @@
       <c r="D66">
         <v>819618</v>
       </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E66" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I66" s="4">
+        <v>3</v>
+      </c>
+      <c r="J66" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L66" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O66" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="P66" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="R66" s="4"/>
+      <c r="S66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -3285,11 +5118,56 @@
       <c r="D67">
         <v>819621</v>
       </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E67" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="F67" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="G67" s="4">
+        <v>3</v>
+      </c>
+      <c r="H67" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I67" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J67" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L67" s="4">
+        <v>9</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O67" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="P67" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -3300,11 +5178,56 @@
       <c r="D68">
         <v>819624</v>
       </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E68" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H68" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>4</v>
+      </c>
+      <c r="J68" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L68" s="4">
+        <v>10</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O68" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P68" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -3315,14 +5238,59 @@
       <c r="D69">
         <v>819627</v>
       </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E69" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="G69" s="4">
+        <v>3</v>
+      </c>
+      <c r="H69" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="J69" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L69" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O69" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="P69" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R69" s="4"/>
+      <c r="S69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3330,14 +5298,61 @@
       <c r="D70">
         <v>819687</v>
       </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E70" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L70" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4">
+        <v>3</v>
+      </c>
+      <c r="P70" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>3</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3345,14 +5360,59 @@
       <c r="D71">
         <v>819690</v>
       </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E71" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="H71" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I71" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J71" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L71" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O71" s="4">
+        <v>5</v>
+      </c>
+      <c r="P71" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3360,14 +5420,59 @@
       <c r="D72">
         <v>819610</v>
       </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E72" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F72" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I72" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -3375,11 +5480,56 @@
       <c r="D73">
         <v>819607</v>
       </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E73" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="F73" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I73" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L73" s="4">
+        <v>6</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="P73" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R73" s="4"/>
+      <c r="S73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3390,11 +5540,56 @@
       <c r="D74">
         <v>819603</v>
       </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E74" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I74" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O74" s="4">
+        <v>3</v>
+      </c>
+      <c r="P74" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R74" s="4"/>
+      <c r="S74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -3405,11 +5600,56 @@
       <c r="D75">
         <v>819606</v>
       </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E75" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F75" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I75" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L75" s="4">
+        <v>5</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="P75" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R75" s="4"/>
+      <c r="S75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3420,14 +5660,59 @@
       <c r="D76">
         <v>819609</v>
       </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E76" s="4">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4">
+        <v>4</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L76" s="4">
+        <v>7</v>
+      </c>
+      <c r="M76" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O76" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="P76" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3475,13 +5760,19 @@
         <v>3.4</v>
       </c>
       <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -3529,13 +5820,19 @@
         <v>3.3</v>
       </c>
       <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -3583,10 +5880,16 @@
         <v>3.55</v>
       </c>
       <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3637,10 +5940,16 @@
         <v>3.25</v>
       </c>
       <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3691,10 +6000,16 @@
         <v>3.3</v>
       </c>
       <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S81" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3745,13 +6060,19 @@
         <v>3</v>
       </c>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3799,12 +6120,18 @@
         <v>3.45</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3855,13 +6182,19 @@
         <v>3.3</v>
       </c>
       <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3909,13 +6242,19 @@
         <v>4.3</v>
       </c>
       <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -3963,13 +6302,19 @@
         <v>3.5</v>
       </c>
       <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S86" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -4017,10 +6362,16 @@
         <v>3.6</v>
       </c>
       <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -4071,10 +6422,16 @@
         <v>3.1</v>
       </c>
       <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S88" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -4125,10 +6482,16 @@
         <v>3.2</v>
       </c>
       <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -4179,13 +6542,19 @@
         <v>2.9</v>
       </c>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S90" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4233,13 +6602,19 @@
         <v>3.6</v>
       </c>
       <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -4287,13 +6662,19 @@
         <v>3.6</v>
       </c>
       <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -4341,10 +6722,16 @@
         <v>3.9</v>
       </c>
       <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -4395,10 +6782,16 @@
         <v>3.4</v>
       </c>
       <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -4449,10 +6842,16 @@
         <v>3.6</v>
       </c>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -4503,13 +6902,19 @@
         <v>3.5</v>
       </c>
       <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4557,13 +6962,19 @@
         <v>4.5</v>
       </c>
       <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -4611,13 +7022,19 @@
         <v>4</v>
       </c>
       <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S98" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -4665,10 +7082,16 @@
         <v>4.45</v>
       </c>
       <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -4719,10 +7142,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S100" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -4773,10 +7202,16 @@
         <v>4.3</v>
       </c>
       <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S101" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -4827,13 +7262,19 @@
         <v>3.5</v>
       </c>
       <c r="R102" s="3"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4881,15 +7322,21 @@
         <v>2.6</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -4937,13 +7384,19 @@
         <v>3.1</v>
       </c>
       <c r="R104" s="3"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S104" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -4991,10 +7444,16 @@
         <v>3.1</v>
       </c>
       <c r="R105" s="3"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S105" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -5045,10 +7504,16 @@
         <v>2.8</v>
       </c>
       <c r="R106" s="3"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S106" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -5099,10 +7564,16 @@
         <v>2.8</v>
       </c>
       <c r="R107" s="3"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S107" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5153,13 +7624,19 @@
         <v>2.6</v>
       </c>
       <c r="R108" s="3"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S108" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5207,10 +7684,19 @@
         <v>1.9</v>
       </c>
       <c r="R109" s="3"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S109" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -5261,13 +7747,22 @@
         <v>1.8</v>
       </c>
       <c r="R110" s="3"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S110" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5315,13 +7810,22 @@
         <v>3.1</v>
       </c>
       <c r="R111" s="3"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S111" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -5369,13 +7873,22 @@
         <v>3.2</v>
       </c>
       <c r="R112" s="3"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -5423,10 +7936,19 @@
         <v>3</v>
       </c>
       <c r="R113" s="3"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S113" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5477,10 +7999,19 @@
         <v>3.1</v>
       </c>
       <c r="R114" s="3"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S114" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -5531,10 +8062,19 @@
         <v>3.1</v>
       </c>
       <c r="R115" s="3"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S115" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5585,13 +8125,22 @@
         <v>2.8</v>
       </c>
       <c r="R116" s="3"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S116" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T116" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5639,13 +8188,22 @@
         <v>2.7</v>
       </c>
       <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S117" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -5693,13 +8251,22 @@
         <v>2.7</v>
       </c>
       <c r="R118" s="3"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S118" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -5747,10 +8314,19 @@
         <v>3</v>
       </c>
       <c r="R119" s="3"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S119" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -5801,10 +8377,19 @@
         <v>2.65</v>
       </c>
       <c r="R120" s="3"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S120" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U120" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -5855,10 +8440,19 @@
         <v>3</v>
       </c>
       <c r="R121" s="3"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S121" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U121" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -5909,13 +8503,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="R122" s="3"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S122" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U122" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5923,11 +8526,61 @@
       <c r="D123">
         <v>819660</v>
       </c>
-      <c r="R123" s="3"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E123" s="4">
+        <v>13</v>
+      </c>
+      <c r="F123" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G123" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="H123" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I123" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="J123" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L123" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="M123" s="4">
+        <v>1</v>
+      </c>
+      <c r="N123" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O123" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="P123" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="R123" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T123" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U123" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -5938,14 +8591,62 @@
       <c r="D124">
         <v>819663</v>
       </c>
-      <c r="R124" s="3"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E124" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="F124" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G124" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H124" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I124" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J124" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L124" s="4">
+        <v>14</v>
+      </c>
+      <c r="M124" s="4">
+        <v>1</v>
+      </c>
+      <c r="N124" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O124" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="P124" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="R124" s="4"/>
+      <c r="S124" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T124" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5953,14 +8654,62 @@
       <c r="D125">
         <v>819672</v>
       </c>
-      <c r="R125" s="3"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E125" s="4">
+        <v>4</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="H125" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J125" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K125" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L125" s="4">
+        <v>4</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N125" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O125" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P125" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R125" s="4"/>
+      <c r="S125" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -5968,14 +8717,62 @@
       <c r="D126">
         <v>819675</v>
       </c>
-      <c r="R126" s="3"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E126" s="4">
+        <v>4</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H126" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L126" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O126" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P126" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R126" s="4"/>
+      <c r="S126" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -5983,11 +8780,59 @@
       <c r="D127">
         <v>819678</v>
       </c>
-      <c r="R127" s="3"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E127" s="4">
+        <v>4</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G127" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H127" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L127" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M127" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O127" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="P127" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R127" s="4"/>
+      <c r="S127" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T127" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -5998,11 +8843,59 @@
       <c r="D128">
         <v>819681</v>
       </c>
-      <c r="R128" s="3"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E128" s="4">
+        <v>4</v>
+      </c>
+      <c r="F128" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H128" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L128" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N128" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O128" s="4">
+        <v>2</v>
+      </c>
+      <c r="P128" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R128" s="4"/>
+      <c r="S128" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -6013,14 +8906,62 @@
       <c r="D129">
         <v>819684</v>
       </c>
-      <c r="R129" s="3"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E129" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H129" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I129" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L129" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O129" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P129" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="R129" s="4"/>
+      <c r="S129" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T129" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U129" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6028,14 +8969,64 @@
       <c r="D130">
         <v>819666</v>
       </c>
-      <c r="R130" s="3"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E130" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="F130" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G130" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="H130" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="I130" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J130" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L130" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N130" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O130" s="4">
+        <v>5</v>
+      </c>
+      <c r="P130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="R130" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U130" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -6043,14 +9034,62 @@
       <c r="D131">
         <v>819669</v>
       </c>
-      <c r="R131" s="3"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E131" s="4">
+        <v>9</v>
+      </c>
+      <c r="F131" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H131" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I131" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="J131" s="4">
+        <v>2</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L131" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="M131" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N131" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O131" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P131" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>4</v>
+      </c>
+      <c r="R131" s="4"/>
+      <c r="S131" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U131" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -6058,14 +9097,62 @@
       <c r="D132">
         <v>819654</v>
       </c>
-      <c r="R132" s="3"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E132" s="4">
+        <v>17</v>
+      </c>
+      <c r="F132" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G132" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="H132" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="I132" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J132" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L132" s="4">
+        <v>12</v>
+      </c>
+      <c r="M132" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N132" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O132" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="P132" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="R132" s="4"/>
+      <c r="S132" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U132" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -6073,14 +9160,62 @@
       <c r="D133">
         <v>819657</v>
       </c>
-      <c r="R133" s="3"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E133" s="4">
+        <v>16</v>
+      </c>
+      <c r="F133" s="4">
+        <v>11</v>
+      </c>
+      <c r="G133" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H133" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="I133" s="4">
+        <v>5</v>
+      </c>
+      <c r="J133" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="K133" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L133" s="4">
+        <v>13</v>
+      </c>
+      <c r="M133" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N133" s="4">
+        <v>2</v>
+      </c>
+      <c r="O133" s="4">
+        <v>8</v>
+      </c>
+      <c r="P133" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>3</v>
+      </c>
+      <c r="R133" s="4"/>
+      <c r="S133" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -6127,13 +9262,22 @@
       <c r="Q134" s="3">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S134" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U134" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -6180,10 +9324,19 @@
       <c r="Q135" s="3">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S135" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -6233,10 +9386,19 @@
       <c r="Q136" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S136" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U136" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -6286,10 +9448,19 @@
       <c r="Q137" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S137" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U137" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -6339,13 +9510,22 @@
       <c r="Q138" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S138" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U138" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -6393,12 +9573,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -6446,12 +9626,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -6499,9 +9679,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -6552,9 +9732,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -6605,9 +9785,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -6658,9 +9838,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -6671,10 +9851,50 @@
       <c r="D145">
         <v>819696</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E145" s="4">
+        <v>7</v>
+      </c>
+      <c r="F145" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G145" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H145" s="4">
+        <v>3</v>
+      </c>
+      <c r="I145" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J145" s="4">
+        <v>2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L145" s="4">
+        <v>5</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N145" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="O145" s="4">
+        <v>3</v>
+      </c>
+      <c r="P145" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="R145" s="5"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -6685,13 +9905,50 @@
       <c r="D146">
         <v>819664</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E146" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F146" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H146" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I146" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J146" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K146" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L146" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O146" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="P146" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R146" s="5"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -6702,8 +9959,49 @@
       <c r="D147">
         <v>819661</v>
       </c>
+      <c r="E147" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F147" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H147" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I147" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="J147" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L147" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O147" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="P147" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R147" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4513" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66301828-A73B-4C5D-8FEC-4D20D140340E}"/>
+  <xr:revisionPtr revIDLastSave="4566" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEF79F5-D56D-4718-913F-34535FE223FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,9 +1362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
   <dimension ref="A1:X203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8163,34 +8163,34 @@
         <v>1</v>
       </c>
       <c r="K95" s="3">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L95" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="M95" s="3">
         <v>1.7</v>
       </c>
       <c r="N95" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O95" s="3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P95" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q95" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R95" s="3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S95" s="3">
         <v>1.2</v>
       </c>
       <c r="T95" s="3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U95" s="3"/>
       <c r="V95" s="3" t="s">
@@ -14348,7 +14348,7 @@
         <v>125</v>
       </c>
       <c r="H181" s="3">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="I181" s="3">
         <v>2.5</v>
@@ -14360,31 +14360,31 @@
         <v>1.7</v>
       </c>
       <c r="L181" s="3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="M181" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="N181" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O181" s="3">
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P181" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q181" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q181" s="3">
-        <v>0.6</v>
-      </c>
       <c r="R181" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S181" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T181" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="U181" s="3"/>
       <c r="V181" s="3" t="s">
@@ -14420,25 +14420,25 @@
         <v>125</v>
       </c>
       <c r="H182" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I182" s="3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J182" s="3">
         <v>1.6</v>
       </c>
       <c r="K182" s="3">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L182" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M182" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N182" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O182" s="3">
         <v>4.3</v>
@@ -14450,13 +14450,13 @@
         <v>0.5</v>
       </c>
       <c r="R182" s="3">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S182" s="3">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T182" s="3">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="U182" s="3"/>
       <c r="V182" s="3" t="s">
@@ -14504,31 +14504,31 @@
         <v>1.5</v>
       </c>
       <c r="L183" s="3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M183" s="3">
         <v>1</v>
       </c>
       <c r="N183" s="3">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="O183" s="3">
         <v>4.3</v>
       </c>
       <c r="P183" s="3">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="Q183" s="3">
         <v>0.4</v>
       </c>
       <c r="R183" s="3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S183" s="3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T183" s="3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="U183" s="3"/>
       <c r="V183" s="3" t="s">
@@ -14564,43 +14564,43 @@
         <v>125</v>
       </c>
       <c r="H184" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I184" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J184" s="3">
         <v>1.5</v>
       </c>
       <c r="K184" s="3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L184" s="3">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="M184" s="3">
         <v>1</v>
       </c>
       <c r="N184" s="3">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="O184" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="P184" s="3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="Q184" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R184" s="3">
         <v>2</v>
       </c>
       <c r="S184" s="3">
+        <v>2</v>
+      </c>
+      <c r="T184" s="3">
         <v>1.5</v>
-      </c>
-      <c r="T184" s="3">
-        <v>1.2</v>
       </c>
       <c r="U184" s="3"/>
       <c r="V184" s="3" t="s">
@@ -14636,25 +14636,25 @@
         <v>125</v>
       </c>
       <c r="H185" s="3">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="I185" s="3">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J185" s="3">
         <v>1.5</v>
       </c>
       <c r="K185" s="3">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L185" s="3">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="M185" s="3">
         <v>1</v>
       </c>
       <c r="N185" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O185" s="3">
         <v>4.3</v>
@@ -14663,16 +14663,16 @@
         <v>0.4</v>
       </c>
       <c r="Q185" s="3">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="R185" s="3">
         <v>2.1</v>
       </c>
       <c r="S185" s="3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T185" s="3">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="U185" s="3"/>
       <c r="V185" s="3" t="s">

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4566" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEF79F5-D56D-4718-913F-34535FE223FB}"/>
+  <xr:revisionPtr revIDLastSave="4567" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CF78D2-C1EC-4471-B3AC-E3CC8C70621E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,10 +820,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1091,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,9 +1358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
   <dimension ref="A1:X203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W11" sqref="W9:AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
+++ b/PNR_Raw_Data/PNR_SpeciesTraits_2022.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4567" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CF78D2-C1EC-4471-B3AC-E3CC8C70621E}"/>
+  <xr:revisionPtr revIDLastSave="4575" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FB4BE6-5140-4FCC-80F1-4958CD6E8FFD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Carabids" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="208">
   <si>
     <t>Unit</t>
   </si>
@@ -643,6 +643,24 @@
   </si>
   <si>
     <t>Trichotichnus</t>
+  </si>
+  <si>
+    <t>OSUC 672659</t>
+  </si>
+  <si>
+    <t>OSUC 672665</t>
+  </si>
+  <si>
+    <t>OSUC 672651</t>
+  </si>
+  <si>
+    <t>OSUC 672663</t>
+  </si>
+  <si>
+    <t>OSUC 672662</t>
+  </si>
+  <si>
+    <t>OSUC 672661</t>
   </si>
 </sst>
 </file>
@@ -1358,9 +1376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28771E8-6EB9-42FB-97A0-049E5D940170}">
   <dimension ref="A1:X203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W11" sqref="W9:AT11"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7714,8 +7732,8 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89">
-        <v>672665</v>
+      <c r="E89" t="s">
+        <v>203</v>
       </c>
       <c r="F89" t="s">
         <v>113</v>
@@ -7785,8 +7803,8 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90">
-        <v>672659</v>
+      <c r="E90" t="s">
+        <v>202</v>
       </c>
       <c r="F90" t="s">
         <v>113</v>
@@ -7856,8 +7874,8 @@
       <c r="D91">
         <v>3</v>
       </c>
-      <c r="E91">
-        <v>672651</v>
+      <c r="E91" t="s">
+        <v>204</v>
       </c>
       <c r="F91" t="s">
         <v>113</v>
@@ -7927,8 +7945,8 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92">
-        <v>672663</v>
+      <c r="E92" t="s">
+        <v>205</v>
       </c>
       <c r="F92" t="s">
         <v>113</v>
@@ -7998,8 +8016,8 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93">
-        <v>672662</v>
+      <c r="E93" t="s">
+        <v>206</v>
       </c>
       <c r="F93" t="s">
         <v>113</v>
@@ -8069,8 +8087,8 @@
       <c r="D94">
         <v>3</v>
       </c>
-      <c r="E94">
-        <v>672661</v>
+      <c r="E94" t="s">
+        <v>207</v>
       </c>
       <c r="F94" t="s">
         <v>113</v>
